--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1962912.29431672</v>
+        <v>1930630.890785837</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584564</v>
+        <v>6486630.972584565</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>259.602877881455</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>274.3314826762635</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1508,10 +1508,10 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V12" t="n">
-        <v>161.3574866739771</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>180.2518826854723</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>62.46756550112549</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>104.3710232580701</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T13" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>170.0341316656182</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>95.00823514637332</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,13 +1688,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>101.265398512867</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>107.504379202417</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.22810184760171</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>94.79299548590352</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>92.59534431168643</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>411.6062992654567</v>
       </c>
       <c r="H17" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>172.4766120862181</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>73.62611191793515</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.3657483393379</v>
@@ -1979,7 +1979,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8112657109832</v>
+        <v>154.368165235535</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>107.3822198467571</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.8610019386828</v>
+        <v>41.09549752694919</v>
       </c>
       <c r="U19" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H20" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>52.99212927636151</v>
+        <v>92.5953443116862</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>86.20197997995274</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2177,10 +2177,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H21" t="n">
-        <v>21.69126064627758</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I21" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>77.22810184760127</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>19.56817365223758</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>247.5167973448263</v>
       </c>
       <c r="G23" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>335.3535469406946</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2405,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554008</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2414,10 +2414,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H24" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8112657109832</v>
+        <v>225.8112657109833</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.42703359015141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>112.2645243771884</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2557,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>41.72946305200902</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>301.6186538912489</v>
+        <v>180.6959230883886</v>
       </c>
       <c r="I26" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H27" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I27" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,10 +2687,10 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T27" t="n">
-        <v>192.1929324266682</v>
+        <v>192.192932426668</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8112657109832</v>
+        <v>225.8112657109831</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>37.97350389683471</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
         <v>195.1205252336517</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>209.7815340485764</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>123.8702465802393</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>259.7115844515552</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246426</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>195.1205252336517</v>
@@ -3006,19 +3006,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>187.8384036712183</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.785993153748355</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>122.7293143731263</v>
       </c>
       <c r="G32" t="n">
-        <v>85.58436930988375</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>102.739413241946</v>
+        <v>77.22810184760138</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T34" t="n">
         <v>220.8610019386828</v>
@@ -3246,16 +3246,16 @@
         <v>286.2285878140705</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>1.953213115720736</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>59.4107262343422</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.986209737679944</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3657483393379</v>
+        <v>63.92264786388922</v>
       </c>
       <c r="H36" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.50388216742073</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T36" t="n">
         <v>192.192932426668</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>7.069592015956634</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>79.5044504341885</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>126.7066250192816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.6062992654567</v>
+        <v>142.461295438445</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>97.30436431165387</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3602,7 +3602,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>134.3298847280289</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>138.881221409141</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H40" t="n">
-        <v>15.01891838299784</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>195.1205252336517</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>124.7874829717001</v>
+        <v>116.6519401963137</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>219.5218389601915</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>93.13436112172583</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.9469826428689</v>
+        <v>84.80628138988455</v>
       </c>
       <c r="T42" t="n">
         <v>192.192932426668</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>180.2518826854705</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>102.7188178527948</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3328844140846</v>
+        <v>84.42167689396608</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I43" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>195.1205252336517</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>364.3661015476566</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.17970808510103</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>95.09008317441825</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3657483393379</v>
+        <v>85.22504708635361</v>
       </c>
       <c r="H45" t="n">
         <v>93.13436112172583</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>53.76397372915756</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U46" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>69.43088176460515</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1249.888488371226</v>
+        <v>1908.420949662744</v>
       </c>
       <c r="C11" t="n">
-        <v>1249.888488371226</v>
+        <v>1539.458432722332</v>
       </c>
       <c r="D11" t="n">
-        <v>1249.888488371226</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E11" t="n">
-        <v>1249.888488371226</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F11" t="n">
-        <v>838.9025835816183</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G11" t="n">
-        <v>423.1386449296418</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H11" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J11" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M11" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S11" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T11" t="n">
-        <v>2155.838745326146</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="U11" t="n">
-        <v>1902.252949520224</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="V11" t="n">
-        <v>1902.252949520224</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="W11" t="n">
-        <v>1902.252949520224</v>
+        <v>2281.886707923823</v>
       </c>
       <c r="X11" t="n">
-        <v>1902.252949520224</v>
+        <v>1908.420949662744</v>
       </c>
       <c r="Y11" t="n">
-        <v>1512.113617544413</v>
+        <v>1908.420949662744</v>
       </c>
     </row>
     <row r="12">
@@ -5105,58 +5105,58 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488151</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1435952757</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G12" t="n">
         <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>71.3354039008882</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J12" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K12" t="n">
-        <v>550.7659925046444</v>
+        <v>583.0451988570717</v>
       </c>
       <c r="L12" t="n">
-        <v>838.7302756873071</v>
+        <v>871.0094820397344</v>
       </c>
       <c r="M12" t="n">
-        <v>1411.972652940316</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.185219170621</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O12" t="n">
-        <v>2115.870836884379</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P12" t="n">
-        <v>2357.126603646088</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q12" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.35490019215</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W12" t="n">
         <v>1515.130183187204</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>473.4593676961807</v>
+        <v>536.5579187074186</v>
       </c>
       <c r="C13" t="n">
-        <v>473.4593676961807</v>
+        <v>536.5579187074186</v>
       </c>
       <c r="D13" t="n">
         <v>473.4593676961807</v>
@@ -5196,10 +5196,10 @@
         <v>156.4714025375973</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477637</v>
       </c>
       <c r="K13" t="n">
         <v>242.1145636490679</v>
@@ -5226,25 +5226,25 @@
         <v>1505.443183112052</v>
       </c>
       <c r="S13" t="n">
-        <v>1400.0179070938</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T13" t="n">
-        <v>1176.925985943615</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="U13" t="n">
-        <v>1176.925985943615</v>
+        <v>1019.231957811323</v>
       </c>
       <c r="V13" t="n">
-        <v>922.2414977377282</v>
+        <v>764.5474696054359</v>
       </c>
       <c r="W13" t="n">
-        <v>922.2414977377282</v>
+        <v>764.5474696054359</v>
       </c>
       <c r="X13" t="n">
-        <v>694.2519468397109</v>
+        <v>536.5579187074186</v>
       </c>
       <c r="Y13" t="n">
-        <v>473.4593676961807</v>
+        <v>536.5579187074186</v>
       </c>
     </row>
     <row r="14">
@@ -5278,13 +5278,13 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K14" t="n">
-        <v>428.7854999799486</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L14" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M14" t="n">
         <v>1187.397991240659</v>
@@ -5299,28 +5299,28 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q14" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R14" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T14" t="n">
-        <v>2155.838745326145</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U14" t="n">
-        <v>1984.087097179056</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V14" t="n">
-        <v>1984.087097179056</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="W14" t="n">
-        <v>1631.318441908942</v>
+        <v>2394.923532145834</v>
       </c>
       <c r="X14" t="n">
-        <v>1631.318441908942</v>
+        <v>2021.457773884754</v>
       </c>
       <c r="Y14" t="n">
         <v>1631.318441908942</v>
@@ -5333,55 +5333,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>859.1382992416502</v>
+        <v>859.1382992416507</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605237</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992724</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6781532488152</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G15" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H15" t="n">
-        <v>71.33540390088821</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I15" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>109.235802444016</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K15" t="n">
-        <v>550.7659925046443</v>
+        <v>292.6406182091635</v>
       </c>
       <c r="L15" t="n">
-        <v>838.7302756873069</v>
+        <v>580.6049013918262</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.127879935978</v>
+        <v>1197.100534384513</v>
       </c>
       <c r="N15" t="n">
-        <v>1573.340446166283</v>
+        <v>1813.596167377201</v>
       </c>
       <c r="O15" t="n">
-        <v>1898.02606388004</v>
+        <v>2138.281785090958</v>
       </c>
       <c r="P15" t="n">
-        <v>2149.150088787597</v>
+        <v>2379.537551852667</v>
       </c>
       <c r="Q15" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S15" t="n">
         <v>2354.581362957454</v>
@@ -5390,7 +5390,7 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U15" t="n">
-        <v>1932.354900192149</v>
+        <v>1932.35490019215</v>
       </c>
       <c r="V15" t="n">
         <v>1697.202791960407</v>
@@ -5399,10 +5399,10 @@
         <v>1442.965435232205</v>
       </c>
       <c r="X15" t="n">
-        <v>1235.113935026672</v>
+        <v>1235.113935026673</v>
       </c>
       <c r="Y15" t="n">
-        <v>1027.353636261718</v>
+        <v>1027.353636261719</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.81782892870199</v>
+        <v>127.8260126131482</v>
       </c>
       <c r="C16" t="n">
-        <v>49.81782892870199</v>
+        <v>127.8260126131482</v>
       </c>
       <c r="D16" t="n">
-        <v>49.81782892870199</v>
+        <v>127.8260126131482</v>
       </c>
       <c r="E16" t="n">
-        <v>49.81782892870199</v>
+        <v>127.8260126131482</v>
       </c>
       <c r="F16" t="n">
-        <v>49.81782892870199</v>
+        <v>127.8260126131482</v>
       </c>
       <c r="G16" t="n">
         <v>49.81782892870199</v>
@@ -5436,22 +5436,22 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394357</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642502</v>
       </c>
       <c r="N16" t="n">
-        <v>1104.867129907538</v>
+        <v>1104.867129907539</v>
       </c>
       <c r="O16" t="n">
-        <v>1361.226948298602</v>
+        <v>1361.226948298603</v>
       </c>
       <c r="P16" t="n">
         <v>1557.066378230431</v>
@@ -5463,25 +5463,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S16" t="n">
-        <v>1609.220368204927</v>
+        <v>1412.128928574976</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.469867714115</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.350082043337</v>
+        <v>899.917221754013</v>
       </c>
       <c r="V16" t="n">
-        <v>969.6655938374497</v>
+        <v>645.2327335481261</v>
       </c>
       <c r="W16" t="n">
-        <v>680.2484238004891</v>
+        <v>355.8155635111655</v>
       </c>
       <c r="X16" t="n">
-        <v>452.2588729024718</v>
+        <v>127.8260126131482</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.4662937589417</v>
+        <v>127.8260126131482</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1608.154186977976</v>
+        <v>1714.152274395166</v>
       </c>
       <c r="C17" t="n">
-        <v>1608.154186977976</v>
+        <v>1620.621623575281</v>
       </c>
       <c r="D17" t="n">
-        <v>1249.888488371226</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E17" t="n">
-        <v>1249.888488371226</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F17" t="n">
-        <v>838.9025835816184</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G17" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H17" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I17" t="n">
         <v>49.81782892870199</v>
@@ -5536,31 +5536,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S17" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T17" t="n">
-        <v>2155.838745326145</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U17" t="n">
-        <v>1981.619945239056</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V17" t="n">
-        <v>1981.619945239056</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="W17" t="n">
-        <v>1981.619945239056</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="X17" t="n">
-        <v>1608.154186977976</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="Y17" t="n">
-        <v>1608.154186977976</v>
+        <v>2100.752114459288</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>859.1382992416502</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C18" t="n">
-        <v>684.6852699605232</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D18" t="n">
-        <v>535.7508602992719</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>376.5134052938164</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F18" t="n">
         <v>302.1435952757001</v>
@@ -5588,37 +5588,37 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088821</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I18" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K18" t="n">
-        <v>413.7755328491961</v>
+        <v>583.0451988570713</v>
       </c>
       <c r="L18" t="n">
-        <v>701.7398160318587</v>
+        <v>871.0094820397339</v>
       </c>
       <c r="M18" t="n">
-        <v>1057.13742028053</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N18" t="n">
-        <v>1436.349986510835</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O18" t="n">
-        <v>1761.035604224592</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P18" t="n">
-        <v>2149.150088787597</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="S18" t="n">
         <v>2354.581362957454</v>
@@ -5627,19 +5627,19 @@
         <v>2160.447087779001</v>
       </c>
       <c r="U18" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V18" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W18" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X18" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y18" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>899.9172217540125</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="C19" t="n">
-        <v>730.9810388261056</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="D19" t="n">
-        <v>580.8643994137699</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="E19" t="n">
-        <v>432.9513058313768</v>
+        <v>513.6957415851958</v>
       </c>
       <c r="F19" t="n">
-        <v>432.9513058313768</v>
+        <v>366.8057940872854</v>
       </c>
       <c r="G19" t="n">
-        <v>264.9382912716953</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H19" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I19" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490678</v>
@@ -5700,25 +5700,25 @@
         <v>1609.220368204927</v>
       </c>
       <c r="S19" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T19" t="n">
-        <v>1189.037007424791</v>
+        <v>1567.709764642352</v>
       </c>
       <c r="U19" t="n">
-        <v>899.9172217540125</v>
+        <v>1278.589978971574</v>
       </c>
       <c r="V19" t="n">
-        <v>899.9172217540125</v>
+        <v>1023.905490765687</v>
       </c>
       <c r="W19" t="n">
-        <v>899.9172217540125</v>
+        <v>734.488320728726</v>
       </c>
       <c r="X19" t="n">
-        <v>899.9172217540125</v>
+        <v>734.488320728726</v>
       </c>
       <c r="Y19" t="n">
-        <v>899.9172217540125</v>
+        <v>513.6957415851958</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1593.653353120274</v>
+        <v>1620.621623575281</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.690836179863</v>
+        <v>1620.621623575281</v>
       </c>
       <c r="D20" t="n">
-        <v>1224.690836179863</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E20" t="n">
-        <v>838.9025835816184</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F20" t="n">
-        <v>838.9025835816184</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G20" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H20" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I20" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J20" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K20" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240659</v>
@@ -5779,25 +5779,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="T20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="U20" t="n">
-        <v>2364.843483837423</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="V20" t="n">
-        <v>2033.780596493852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="W20" t="n">
-        <v>2033.780596493852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="X20" t="n">
-        <v>1980.253193184396</v>
+        <v>2397.360795615215</v>
       </c>
       <c r="Y20" t="n">
-        <v>1980.253193184396</v>
+        <v>2007.221463639403</v>
       </c>
     </row>
     <row r="21">
@@ -5816,16 +5816,16 @@
         <v>535.7508602992724</v>
       </c>
       <c r="E21" t="n">
-        <v>376.5134052938169</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F21" t="n">
-        <v>229.9788473207019</v>
+        <v>302.1435952757</v>
       </c>
       <c r="G21" t="n">
-        <v>93.2457681900575</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H21" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I21" t="n">
         <v>49.81782892870199</v>
@@ -5834,25 +5834,25 @@
         <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>560.6342506504922</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L21" t="n">
-        <v>848.5985338331548</v>
+        <v>963.5604006743116</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.996138081826</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N21" t="n">
-        <v>1583.208704312131</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O21" t="n">
-        <v>1907.894322025888</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P21" t="n">
-        <v>2149.150088787597</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q21" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.8914464351</v>
       </c>
       <c r="R21" t="n">
         <v>2490.8914464351</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>237.5966754603405</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="C22" t="n">
-        <v>237.5966754603405</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="D22" t="n">
-        <v>237.5966754603405</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="E22" t="n">
-        <v>237.5966754603405</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F22" t="n">
-        <v>237.5966754603405</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G22" t="n">
-        <v>69.58366090065914</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H22" t="n">
-        <v>69.58366090065914</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I22" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J22" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477634</v>
       </c>
       <c r="K22" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L22" t="n">
         <v>513.4770511394356</v>
@@ -5940,22 +5940,22 @@
         <v>1412.128928574975</v>
       </c>
       <c r="T22" t="n">
-        <v>1412.128928574975</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="U22" t="n">
-        <v>1412.128928574975</v>
+        <v>899.9172217540125</v>
       </c>
       <c r="V22" t="n">
-        <v>1157.444440369088</v>
+        <v>645.2327335481257</v>
       </c>
       <c r="W22" t="n">
-        <v>868.0272703321277</v>
+        <v>355.8155635111651</v>
       </c>
       <c r="X22" t="n">
-        <v>640.0377194341104</v>
+        <v>127.8260126131477</v>
       </c>
       <c r="Y22" t="n">
-        <v>419.2451402905803</v>
+        <v>127.8260126131477</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1637.149490927736</v>
+        <v>1414.32401404735</v>
       </c>
       <c r="C23" t="n">
-        <v>1637.149490927736</v>
+        <v>1045.361497106938</v>
       </c>
       <c r="D23" t="n">
-        <v>1637.149490927736</v>
+        <v>687.0957985001876</v>
       </c>
       <c r="E23" t="n">
-        <v>1251.361238329491</v>
+        <v>301.3075459019433</v>
       </c>
       <c r="F23" t="n">
-        <v>840.3753335398837</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G23" t="n">
-        <v>424.6113948879072</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H23" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>254.8131514952473</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K23" t="n">
-        <v>502.4229978932127</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L23" t="n">
-        <v>846.506669368179</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M23" t="n">
-        <v>1261.035489153923</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N23" t="n">
-        <v>1686.885626999171</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.668575230788</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P23" t="n">
-        <v>2372.984825876113</v>
+        <v>2300.820077921115</v>
       </c>
       <c r="Q23" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S23" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T23" t="n">
-        <v>2229.476243239409</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U23" t="n">
-        <v>1975.890447433488</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V23" t="n">
-        <v>1975.890447433488</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W23" t="n">
-        <v>1637.149490927736</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X23" t="n">
-        <v>1637.149490927736</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y23" t="n">
-        <v>1637.149490927736</v>
+        <v>1800.923854111471</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C24" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D24" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
         <v>450.1509032070804</v>
@@ -6062,40 +6062,40 @@
         <v>166.883266103321</v>
       </c>
       <c r="H24" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I24" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J24" t="n">
-        <v>235.538677389286</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>415.2482828074615</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L24" t="n">
-        <v>922.2360317464181</v>
+        <v>1152.623494811488</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.63363599509</v>
+        <v>1508.021099060159</v>
       </c>
       <c r="N24" t="n">
-        <v>1656.846202225395</v>
+        <v>1887.233665290464</v>
       </c>
       <c r="O24" t="n">
-        <v>1981.531819939152</v>
+        <v>2211.919283004221</v>
       </c>
       <c r="P24" t="n">
-        <v>2222.787586700861</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q24" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R24" t="n">
         <v>2564.528944348363</v>
       </c>
       <c r="S24" t="n">
-        <v>2428.218860870717</v>
+        <v>2428.218860870718</v>
       </c>
       <c r="T24" t="n">
         <v>2234.084585692265</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.29057888696726</v>
+        <v>907.3834494665961</v>
       </c>
       <c r="C25" t="n">
-        <v>51.29057888696726</v>
+        <v>738.4472665386892</v>
       </c>
       <c r="D25" t="n">
-        <v>51.29057888696726</v>
+        <v>588.3306271263534</v>
       </c>
       <c r="E25" t="n">
-        <v>51.29057888696726</v>
+        <v>474.932117654446</v>
       </c>
       <c r="F25" t="n">
-        <v>51.29057888696726</v>
+        <v>474.932117654446</v>
       </c>
       <c r="G25" t="n">
-        <v>51.29057888696726</v>
+        <v>306.9191030947646</v>
       </c>
       <c r="H25" t="n">
-        <v>51.29057888696726</v>
+        <v>157.9441524958626</v>
       </c>
       <c r="I25" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J25" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K25" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L25" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M25" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N25" t="n">
         <v>1106.339879865804</v>
@@ -6177,22 +6177,22 @@
         <v>1309.824493440366</v>
       </c>
       <c r="T25" t="n">
-        <v>1086.732572290181</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="U25" t="n">
-        <v>797.612786619403</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="V25" t="n">
-        <v>542.9282984135161</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="W25" t="n">
-        <v>542.9282984135161</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="X25" t="n">
-        <v>314.9387475154988</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.14616837196868</v>
+        <v>1089.031914296836</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>852.5506202659585</v>
+        <v>1787.789772308429</v>
       </c>
       <c r="C26" t="n">
-        <v>852.5506202659585</v>
+        <v>1418.827255368017</v>
       </c>
       <c r="D26" t="n">
-        <v>852.5506202659585</v>
+        <v>1060.561556761267</v>
       </c>
       <c r="E26" t="n">
-        <v>466.7623676677143</v>
+        <v>1060.561556761267</v>
       </c>
       <c r="F26" t="n">
-        <v>424.6113948879072</v>
+        <v>649.5756519716595</v>
       </c>
       <c r="G26" t="n">
-        <v>424.6113948879072</v>
+        <v>233.811713319683</v>
       </c>
       <c r="H26" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="J26" t="n">
-        <v>182.6484035402486</v>
+        <v>254.8131514952462</v>
       </c>
       <c r="K26" t="n">
-        <v>430.2582499382139</v>
+        <v>502.4229978932116</v>
       </c>
       <c r="L26" t="n">
-        <v>774.3419214131802</v>
+        <v>846.5066693681781</v>
       </c>
       <c r="M26" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N26" t="n">
-        <v>1614.720879044172</v>
+        <v>1686.88562699917</v>
       </c>
       <c r="O26" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230787</v>
       </c>
       <c r="P26" t="n">
-        <v>2300.820077921114</v>
+        <v>2372.984825876112</v>
       </c>
       <c r="Q26" t="n">
         <v>2548.08420147501</v>
@@ -6256,22 +6256,22 @@
         <v>2564.528944348363</v>
       </c>
       <c r="T26" t="n">
-        <v>2355.524205837086</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U26" t="n">
-        <v>2355.524205837086</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V26" t="n">
-        <v>2355.524205837086</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W26" t="n">
-        <v>2002.755550566972</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X26" t="n">
-        <v>1629.289792305892</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="Y26" t="n">
-        <v>1239.15046033008</v>
+        <v>2174.389612372551</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549141</v>
+        <v>932.7757971549139</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737871</v>
+        <v>758.3227678737869</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125356</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070802</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339651</v>
       </c>
       <c r="G27" t="n">
-        <v>166.883266103321</v>
+        <v>166.8832661033208</v>
       </c>
       <c r="H27" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="J27" t="n">
-        <v>110.7085524022813</v>
+        <v>235.538677389286</v>
       </c>
       <c r="K27" t="n">
-        <v>290.4181578204567</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L27" t="n">
-        <v>925.1390715466765</v>
+        <v>965.0331506325768</v>
       </c>
       <c r="M27" t="n">
-        <v>1280.536675795348</v>
+        <v>1320.430754881249</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.749242025653</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O27" t="n">
-        <v>1984.43485973941</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P27" t="n">
-        <v>2430.764101559351</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q27" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R27" t="n">
         <v>2564.528944348363</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>348.1786230682624</v>
+        <v>387.6773865249635</v>
       </c>
       <c r="C28" t="n">
-        <v>348.1786230682624</v>
+        <v>387.6773865249635</v>
       </c>
       <c r="D28" t="n">
-        <v>348.1786230682624</v>
+        <v>237.5607471126278</v>
       </c>
       <c r="E28" t="n">
-        <v>200.2655294858693</v>
+        <v>89.64765353023463</v>
       </c>
       <c r="F28" t="n">
-        <v>200.2655294858693</v>
+        <v>89.64765353023463</v>
       </c>
       <c r="G28" t="n">
-        <v>200.2655294858693</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="J28" t="n">
         <v>74.9200300130416</v>
@@ -6408,28 +6408,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>1610.693118163192</v>
+        <v>1506.915933070317</v>
       </c>
       <c r="S28" t="n">
-        <v>1413.601678533241</v>
+        <v>1309.824493440366</v>
       </c>
       <c r="T28" t="n">
-        <v>1190.509757383056</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="U28" t="n">
-        <v>1190.509757383056</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.509757383056</v>
+        <v>1086.732572290181</v>
       </c>
       <c r="W28" t="n">
-        <v>978.6092179400496</v>
+        <v>797.3154022532206</v>
       </c>
       <c r="X28" t="n">
-        <v>750.6196670420322</v>
+        <v>569.3258513552032</v>
       </c>
       <c r="Y28" t="n">
-        <v>529.8270878985021</v>
+        <v>569.3258513552032</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1926.759680494403</v>
+        <v>1562.825515224677</v>
       </c>
       <c r="C29" t="n">
-        <v>1926.759680494403</v>
+        <v>1193.862998284265</v>
       </c>
       <c r="D29" t="n">
-        <v>1568.493981887653</v>
+        <v>835.5972996775147</v>
       </c>
       <c r="E29" t="n">
-        <v>1182.705729289409</v>
+        <v>835.5972996775147</v>
       </c>
       <c r="F29" t="n">
-        <v>771.7198244998012</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="G29" t="n">
-        <v>355.9558858478247</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H29" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="J29" t="n">
         <v>182.6484035402486</v>
@@ -6472,16 +6472,16 @@
         <v>774.3419214131802</v>
       </c>
       <c r="M29" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N29" t="n">
-        <v>1614.720879044172</v>
+        <v>1686.88562699917</v>
       </c>
       <c r="O29" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230787</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876113</v>
+        <v>2372.984825876112</v>
       </c>
       <c r="Q29" t="n">
         <v>2548.08420147501</v>
@@ -6490,25 +6490,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S29" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T29" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U29" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V29" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W29" t="n">
-        <v>2438.480981750686</v>
+        <v>2211.760289078248</v>
       </c>
       <c r="X29" t="n">
-        <v>2313.359520558525</v>
+        <v>2211.760289078248</v>
       </c>
       <c r="Y29" t="n">
-        <v>2313.359520558525</v>
+        <v>1949.425355288799</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549142</v>
       </c>
       <c r="C30" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737873</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125358</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070803</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339653</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G30" t="n">
-        <v>166.8832661033209</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915338</v>
+        <v>72.80815385915348</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="J30" t="n">
-        <v>110.7085524022813</v>
+        <v>215.152506709706</v>
       </c>
       <c r="K30" t="n">
-        <v>532.2129674097833</v>
+        <v>656.6826967703342</v>
       </c>
       <c r="L30" t="n">
-        <v>820.1772505924459</v>
+        <v>944.6469799529968</v>
       </c>
       <c r="M30" t="n">
-        <v>1175.574854841117</v>
+        <v>1300.044584201668</v>
       </c>
       <c r="N30" t="n">
-        <v>1554.787421071422</v>
+        <v>1679.257150431973</v>
       </c>
       <c r="O30" t="n">
-        <v>2189.508334797642</v>
+        <v>2003.94276814573</v>
       </c>
       <c r="P30" t="n">
-        <v>2430.764101559351</v>
+        <v>2245.198534907439</v>
       </c>
       <c r="Q30" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6578,7 +6578,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.7582480802632</v>
+        <v>370.3434012272099</v>
       </c>
       <c r="C31" t="n">
-        <v>621.8220651523563</v>
+        <v>201.407218299303</v>
       </c>
       <c r="D31" t="n">
-        <v>621.8220651523563</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="E31" t="n">
-        <v>621.8220651523563</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="F31" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="G31" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="H31" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696726</v>
+        <v>51.29057888696725</v>
       </c>
       <c r="J31" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304158</v>
       </c>
       <c r="K31" t="n">
         <v>243.5873136073331</v>
@@ -6645,28 +6645,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R31" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S31" t="n">
-        <v>1309.824493440366</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T31" t="n">
-        <v>1086.732572290181</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U31" t="n">
-        <v>797.612786619403</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="V31" t="n">
-        <v>797.612786619403</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="W31" t="n">
-        <v>797.612786619403</v>
+        <v>1000.773996098997</v>
       </c>
       <c r="X31" t="n">
-        <v>797.612786619403</v>
+        <v>772.7844452009798</v>
       </c>
       <c r="Y31" t="n">
-        <v>790.7582480802632</v>
+        <v>551.9918660574497</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1661.741809710753</v>
+        <v>1288.276051449673</v>
       </c>
       <c r="C32" t="n">
-        <v>1292.779292770341</v>
+        <v>919.3135345092612</v>
       </c>
       <c r="D32" t="n">
-        <v>934.5135941635906</v>
+        <v>561.0478359025108</v>
       </c>
       <c r="E32" t="n">
-        <v>548.7253415653463</v>
+        <v>175.2595833042665</v>
       </c>
       <c r="F32" t="n">
-        <v>137.7394367757387</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G32" t="n">
         <v>51.29057888696726</v>
@@ -6706,22 +6706,22 @@
         <v>430.2582499382139</v>
       </c>
       <c r="L32" t="n">
-        <v>774.3419214131802</v>
+        <v>781.4474136939264</v>
       </c>
       <c r="M32" t="n">
-        <v>1188.870741198924</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N32" t="n">
-        <v>1614.720879044172</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O32" t="n">
-        <v>2003.503827275789</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P32" t="n">
-        <v>2300.820077921114</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q32" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R32" t="n">
         <v>2564.528944348363</v>
@@ -6742,10 +6742,10 @@
         <v>2438.480981750686</v>
       </c>
       <c r="X32" t="n">
-        <v>2438.480981750686</v>
+        <v>2065.015223489606</v>
       </c>
       <c r="Y32" t="n">
-        <v>2048.341649774874</v>
+        <v>1674.875891513795</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.775797154914</v>
+        <v>932.7757971549136</v>
       </c>
       <c r="C33" t="n">
-        <v>758.322767873787</v>
+        <v>758.3227678737865</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125352</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070801</v>
+        <v>450.1509032070798</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339647</v>
       </c>
       <c r="G33" t="n">
-        <v>166.8832661033211</v>
+        <v>166.8832661033207</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915366</v>
+        <v>72.80815385915349</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
@@ -6782,25 +6782,25 @@
         <v>235.538677389286</v>
       </c>
       <c r="K33" t="n">
-        <v>415.2482828074615</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L33" t="n">
-        <v>1049.969196533681</v>
+        <v>965.0331506325768</v>
       </c>
       <c r="M33" t="n">
-        <v>1485.61015085358</v>
+        <v>1320.430754881249</v>
       </c>
       <c r="N33" t="n">
-        <v>1864.822717083885</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O33" t="n">
-        <v>2189.508334797642</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P33" t="n">
-        <v>2430.764101559351</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q33" t="n">
-        <v>2542.117996141784</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="R33" t="n">
         <v>2564.528944348363</v>
@@ -6809,7 +6809,7 @@
         <v>2428.218860870717</v>
       </c>
       <c r="T33" t="n">
-        <v>2234.084585692265</v>
+        <v>2234.084585692264</v>
       </c>
       <c r="U33" t="n">
         <v>2005.992398105413</v>
@@ -6818,7 +6818,7 @@
         <v>1770.84028987367</v>
       </c>
       <c r="W33" t="n">
-        <v>1516.602933145469</v>
+        <v>1516.602933145468</v>
       </c>
       <c r="X33" t="n">
         <v>1308.751432939936</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.9387045646921</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="C34" t="n">
-        <v>771.9387045646921</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D34" t="n">
-        <v>621.8220651523563</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E34" t="n">
-        <v>621.8220651523563</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F34" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G34" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H34" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I34" t="n">
         <v>51.29057888696726</v>
@@ -6882,28 +6882,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>1506.915933070317</v>
+        <v>1532.684934478746</v>
       </c>
       <c r="S34" t="n">
-        <v>1506.915933070317</v>
+        <v>1335.593494848795</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.824011920133</v>
+        <v>1112.50157369861</v>
       </c>
       <c r="U34" t="n">
-        <v>994.7042262493543</v>
+        <v>823.381788027832</v>
       </c>
       <c r="V34" t="n">
-        <v>994.7042262493543</v>
+        <v>568.6972998219452</v>
       </c>
       <c r="W34" t="n">
-        <v>992.7312837082222</v>
+        <v>279.2801297849846</v>
       </c>
       <c r="X34" t="n">
-        <v>992.7312837082222</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="Y34" t="n">
-        <v>771.9387045646921</v>
+        <v>51.29057888696726</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>804.568598467358</v>
+        <v>1578.598235726085</v>
       </c>
       <c r="C35" t="n">
-        <v>435.6060815269462</v>
+        <v>1209.635718785673</v>
       </c>
       <c r="D35" t="n">
-        <v>435.6060815269462</v>
+        <v>851.3700201789227</v>
       </c>
       <c r="E35" t="n">
-        <v>49.81782892870199</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="F35" t="n">
-        <v>49.81782892870199</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G35" t="n">
         <v>49.81782892870199</v>
@@ -6937,52 +6937,52 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819833</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799488</v>
+        <v>428.7854999799485</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549152</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837423</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T35" t="n">
-        <v>2155.838745326146</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U35" t="n">
-        <v>1902.252949520224</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V35" t="n">
-        <v>1571.190062176654</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W35" t="n">
-        <v>1568.17368870425</v>
+        <v>2012.074828567308</v>
       </c>
       <c r="X35" t="n">
-        <v>1194.70793044317</v>
+        <v>1638.609070306228</v>
       </c>
       <c r="Y35" t="n">
-        <v>804.568598467358</v>
+        <v>1638.609070306228</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G36" t="n">
         <v>165.4105161450557</v>
@@ -7016,52 +7016,52 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J36" t="n">
-        <v>119.1040605898639</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K36" t="n">
-        <v>560.6342506504922</v>
+        <v>675.5961174916488</v>
       </c>
       <c r="L36" t="n">
-        <v>848.5985338331548</v>
+        <v>963.5604006743113</v>
       </c>
       <c r="M36" t="n">
-        <v>1203.996138081826</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N36" t="n">
-        <v>1583.208704312131</v>
+        <v>1698.170571153287</v>
       </c>
       <c r="O36" t="n">
-        <v>1907.894322025888</v>
+        <v>2022.856188867044</v>
       </c>
       <c r="P36" t="n">
-        <v>2149.150088787597</v>
+        <v>2264.111955628753</v>
       </c>
       <c r="Q36" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.746110912452</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.611835734</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>609.5939420830653</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C37" t="n">
-        <v>609.5939420830653</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D37" t="n">
-        <v>459.4773026707295</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E37" t="n">
-        <v>452.3363006344097</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F37" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G37" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H37" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I37" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477633</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7113,34 +7113,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q37" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R37" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S37" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T37" t="n">
-        <v>1308.351743482101</v>
+        <v>1331.821402883875</v>
       </c>
       <c r="U37" t="n">
-        <v>1019.231957811322</v>
+        <v>1042.701617213097</v>
       </c>
       <c r="V37" t="n">
-        <v>1019.231957811322</v>
+        <v>788.0171290072101</v>
       </c>
       <c r="W37" t="n">
-        <v>1019.231957811322</v>
+        <v>498.5999589702494</v>
       </c>
       <c r="X37" t="n">
-        <v>791.242406913305</v>
+        <v>270.6104080722321</v>
       </c>
       <c r="Y37" t="n">
-        <v>791.242406913305</v>
+        <v>49.81782892870199</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2362.904956516632</v>
+        <v>920.9463428985359</v>
       </c>
       <c r="C38" t="n">
-        <v>1993.942439576221</v>
+        <v>551.9838259581243</v>
       </c>
       <c r="D38" t="n">
-        <v>1635.67674096947</v>
+        <v>193.7181273513738</v>
       </c>
       <c r="E38" t="n">
-        <v>1249.888488371226</v>
+        <v>193.7181273513738</v>
       </c>
       <c r="F38" t="n">
-        <v>838.9025835816184</v>
+        <v>193.7181273513738</v>
       </c>
       <c r="G38" t="n">
-        <v>423.1386449296419</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H38" t="n">
-        <v>118.4733379687844</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819841</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799497</v>
       </c>
       <c r="L38" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549163</v>
       </c>
       <c r="M38" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O38" t="n">
         <v>2002.031077317524</v>
@@ -7201,25 +7201,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S38" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T38" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U38" t="n">
-        <v>2490.891446435099</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V38" t="n">
-        <v>2490.891446435099</v>
+        <v>2033.780596493852</v>
       </c>
       <c r="W38" t="n">
-        <v>2490.891446435099</v>
+        <v>1681.011941223737</v>
       </c>
       <c r="X38" t="n">
-        <v>2490.891446435099</v>
+        <v>1307.546182962658</v>
       </c>
       <c r="Y38" t="n">
-        <v>2490.891446435099</v>
+        <v>1307.546182962658</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>859.1382992416497</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C39" t="n">
-        <v>684.6852699605228</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D39" t="n">
-        <v>586.3980332820845</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E39" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F39" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H39" t="n">
-        <v>49.81782892870198</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J39" t="n">
-        <v>109.235802444016</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K39" t="n">
-        <v>453.3326245554441</v>
+        <v>560.6342506504922</v>
       </c>
       <c r="L39" t="n">
-        <v>741.2969077381067</v>
+        <v>848.5985338331546</v>
       </c>
       <c r="M39" t="n">
-        <v>1096.694511986778</v>
+        <v>1203.996138081826</v>
       </c>
       <c r="N39" t="n">
-        <v>1475.907078217083</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O39" t="n">
-        <v>1800.59269593084</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P39" t="n">
-        <v>2357.126603646087</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q39" t="n">
         <v>2468.48049822852</v>
@@ -7280,25 +7280,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U39" t="n">
         <v>1932.354900192149</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W39" t="n">
         <v>1442.965435232205</v>
       </c>
       <c r="X39" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y39" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>677.9211486103134</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="C40" t="n">
-        <v>677.9211486103134</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="D40" t="n">
-        <v>527.8045091979776</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="E40" t="n">
-        <v>379.8914156155845</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="F40" t="n">
-        <v>233.0014681176741</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G40" t="n">
-        <v>64.98845355799273</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N40" t="n">
         <v>1104.867129907538</v>
@@ -7350,34 +7350,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q40" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R40" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S40" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T40" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U40" t="n">
-        <v>1308.351743482101</v>
+        <v>1123.009142904196</v>
       </c>
       <c r="V40" t="n">
-        <v>1308.351743482101</v>
+        <v>868.3246546983095</v>
       </c>
       <c r="W40" t="n">
-        <v>1308.351743482101</v>
+        <v>578.9074846613489</v>
       </c>
       <c r="X40" t="n">
-        <v>1080.362192584083</v>
+        <v>578.9074846613489</v>
       </c>
       <c r="Y40" t="n">
-        <v>859.5696134405531</v>
+        <v>358.1149055178188</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1207.86510052203</v>
+        <v>1256.687458305554</v>
       </c>
       <c r="C41" t="n">
-        <v>838.9025835816184</v>
+        <v>887.7249413651425</v>
       </c>
       <c r="D41" t="n">
-        <v>838.9025835816184</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="E41" t="n">
-        <v>838.9025835816184</v>
+        <v>529.4592427583921</v>
       </c>
       <c r="F41" t="n">
-        <v>838.9025835816184</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="G41" t="n">
-        <v>423.1386449296419</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="H41" t="n">
-        <v>118.4733379687844</v>
+        <v>118.4733379687845</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J41" t="n">
-        <v>181.1756535819834</v>
+        <v>181.175653581984</v>
       </c>
       <c r="K41" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799492</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549145</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M41" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O41" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P41" t="n">
         <v>2299.347327962849</v>
@@ -7438,25 +7438,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S41" t="n">
-        <v>2364.843483837422</v>
+        <v>2373.06120381256</v>
       </c>
       <c r="T41" t="n">
-        <v>2155.838745326145</v>
+        <v>2373.06120381256</v>
       </c>
       <c r="U41" t="n">
-        <v>1934.099514053224</v>
+        <v>2373.06120381256</v>
       </c>
       <c r="V41" t="n">
-        <v>1934.099514053224</v>
+        <v>2373.06120381256</v>
       </c>
       <c r="W41" t="n">
-        <v>1581.33085878311</v>
+        <v>2020.292548542446</v>
       </c>
       <c r="X41" t="n">
-        <v>1207.86510052203</v>
+        <v>1646.826790281366</v>
       </c>
       <c r="Y41" t="n">
-        <v>1207.86510052203</v>
+        <v>1256.687458305554</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3030471966489</v>
+        <v>909.7854722244628</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8500179155219</v>
+        <v>735.3324429433358</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9156082542706</v>
+        <v>586.3980332820845</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6781532488151</v>
+        <v>427.1605782766289</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1435952757001</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H42" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J42" t="n">
-        <v>109.235802444016</v>
+        <v>109.2358024440159</v>
       </c>
       <c r="K42" t="n">
-        <v>550.7659925046443</v>
+        <v>550.765992504644</v>
       </c>
       <c r="L42" t="n">
-        <v>838.7302756873069</v>
+        <v>838.7302756873065</v>
       </c>
       <c r="M42" t="n">
         <v>1194.127879935978</v>
@@ -7508,7 +7508,7 @@
         <v>1898.02606388004</v>
       </c>
       <c r="P42" t="n">
-        <v>2149.150088787596</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q42" t="n">
         <v>2468.48049822852</v>
@@ -7517,25 +7517,25 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S42" t="n">
-        <v>2354.581362957453</v>
+        <v>2405.228535940266</v>
       </c>
       <c r="T42" t="n">
-        <v>2160.447087779</v>
+        <v>2211.094260761814</v>
       </c>
       <c r="U42" t="n">
-        <v>1932.354900192149</v>
+        <v>1983.002073174962</v>
       </c>
       <c r="V42" t="n">
-        <v>1697.202791960406</v>
+        <v>1747.849964943219</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.130183187204</v>
+        <v>1493.612608215017</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.278682981671</v>
+        <v>1285.761108009485</v>
       </c>
       <c r="Y42" t="n">
-        <v>1099.518384216717</v>
+        <v>1078.000809244531</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.0187904459739</v>
+        <v>747.8064246408306</v>
       </c>
       <c r="C43" t="n">
-        <v>872.0187904459739</v>
+        <v>578.8702417129238</v>
       </c>
       <c r="D43" t="n">
-        <v>768.2624087764842</v>
+        <v>578.8702417129238</v>
       </c>
       <c r="E43" t="n">
-        <v>620.3493151940911</v>
+        <v>430.9571481305306</v>
       </c>
       <c r="F43" t="n">
-        <v>473.4593676961807</v>
+        <v>284.0672006326203</v>
       </c>
       <c r="G43" t="n">
-        <v>305.4463531364993</v>
+        <v>198.792779527604</v>
       </c>
       <c r="H43" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N43" t="n">
         <v>1104.867129907538</v>
@@ -7587,34 +7587,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q43" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R43" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S43" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="T43" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="U43" t="n">
-        <v>1308.351743482101</v>
+        <v>1412.128928574975</v>
       </c>
       <c r="V43" t="n">
-        <v>1053.667255276214</v>
+        <v>1157.444440369088</v>
       </c>
       <c r="W43" t="n">
-        <v>1053.667255276214</v>
+        <v>1157.444440369088</v>
       </c>
       <c r="X43" t="n">
-        <v>1053.667255276214</v>
+        <v>929.4548894710704</v>
       </c>
       <c r="Y43" t="n">
-        <v>1053.667255276214</v>
+        <v>929.4548894710704</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>418.7803458691137</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="C44" t="n">
-        <v>49.81782892870198</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="D44" t="n">
-        <v>49.81782892870198</v>
+        <v>1214.638553536409</v>
       </c>
       <c r="E44" t="n">
-        <v>49.81782892870198</v>
+        <v>828.8503009381648</v>
       </c>
       <c r="F44" t="n">
-        <v>49.81782892870198</v>
+        <v>417.8643961485572</v>
       </c>
       <c r="G44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I44" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J44" t="n">
         <v>181.1756535819833</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799487</v>
+        <v>428.7854999799485</v>
       </c>
       <c r="L44" t="n">
-        <v>772.869171454915</v>
+        <v>772.8691714549147</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085906</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317523</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.347327962848</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561745</v>
       </c>
       <c r="R44" t="n">
         <v>2490.891446435099</v>
@@ -7678,22 +7678,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T44" t="n">
-        <v>2155.838745326145</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="U44" t="n">
-        <v>1902.252949520223</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="V44" t="n">
-        <v>1571.190062176653</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="W44" t="n">
-        <v>1218.421406906539</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="X44" t="n">
-        <v>844.9556486454587</v>
+        <v>1991.377725576343</v>
       </c>
       <c r="Y44" t="n">
-        <v>805.3801859332355</v>
+        <v>1601.238393600531</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6781532488151</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1435952757001</v>
+        <v>229.9788473207014</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4105161450557</v>
+        <v>143.8929411728695</v>
       </c>
       <c r="H45" t="n">
-        <v>71.3354039008882</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I45" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J45" t="n">
         <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>560.6342506504913</v>
+        <v>413.775532849196</v>
       </c>
       <c r="L45" t="n">
-        <v>848.5985338331539</v>
+        <v>701.7398160318585</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.996138081825</v>
+        <v>1057.13742028053</v>
       </c>
       <c r="N45" t="n">
-        <v>1583.20870431213</v>
+        <v>1583.208704312131</v>
       </c>
       <c r="O45" t="n">
-        <v>1907.894322025887</v>
+        <v>1907.894322025888</v>
       </c>
       <c r="P45" t="n">
-        <v>2149.150088787596</v>
+        <v>2149.150088787597</v>
       </c>
       <c r="Q45" t="n">
         <v>2468.48049822852</v>
@@ -7754,16 +7754,16 @@
         <v>2490.891446435099</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.581362957453</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T45" t="n">
-        <v>2160.447087779</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U45" t="n">
         <v>1932.354900192149</v>
       </c>
       <c r="V45" t="n">
-        <v>1697.202791960406</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W45" t="n">
         <v>1442.965435232205</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>515.760598766855</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="C46" t="n">
-        <v>346.8244158389481</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="D46" t="n">
-        <v>196.7077764266123</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="E46" t="n">
-        <v>196.7077764266123</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="F46" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="G46" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H46" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I46" t="n">
-        <v>49.81782892870198</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477631</v>
+        <v>73.44728005477629</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490678</v>
+        <v>242.1145636490677</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394354</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642501</v>
+        <v>809.9798694642498</v>
       </c>
       <c r="N46" t="n">
         <v>1104.867129907538</v>
@@ -7824,34 +7824,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.066378230431</v>
+        <v>1557.06637823043</v>
       </c>
       <c r="Q46" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R46" t="n">
-        <v>1505.443183112052</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S46" t="n">
-        <v>1505.443183112052</v>
+        <v>1554.91332403406</v>
       </c>
       <c r="T46" t="n">
-        <v>1505.443183112052</v>
+        <v>1331.821402883875</v>
       </c>
       <c r="U46" t="n">
-        <v>1216.323397441274</v>
+        <v>1042.701617213097</v>
       </c>
       <c r="V46" t="n">
-        <v>1216.323397441274</v>
+        <v>788.0171290072101</v>
       </c>
       <c r="W46" t="n">
-        <v>1146.191193638642</v>
+        <v>498.5999589702494</v>
       </c>
       <c r="X46" t="n">
-        <v>918.2016427406248</v>
+        <v>270.6104080722321</v>
       </c>
       <c r="Y46" t="n">
-        <v>697.4090635970947</v>
+        <v>49.81782892870199</v>
       </c>
     </row>
   </sheetData>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140155</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>220.0452252569067</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>3.732535704012093</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>263.7353825697126</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>239.6798654165477</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>9.967937521058218</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053377</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>170.9794606140153</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>148.3421391932279</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>148.3421391932283</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>116.5915113372854</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.893684803029</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>7.177264930045709</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>221.2358239962566</v>
+        <v>189.4851961403143</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.8936848030279</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>72.89368480302872</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>350.2592227712699</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>207.144924301245</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>189.4851961403136</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>72.89368480302869</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>72.89368480302875</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>105.4989437448735</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2371814033602</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>313.1669656691544</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>7.17726493004659</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>72.89368480302872</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>350.2592227712699</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>81.05388896083582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>189.4851961403141</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.122657522500958e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>9.967937521058502</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>116.5915113372864</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053383</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>166.0476936295481</v>
+        <v>148.3421391932285</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>9.967937521057763</v>
+        <v>9.967937521058815</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.122657522500958e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>148.3421391932274</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>148.3421391932284</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123.1309637820256</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>80.35155894441942</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23396,10 +23396,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>71.44310047544818</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>71.4431004754473</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>86.14790751708686</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>90.74950197558165</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968161</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U14" t="n">
-        <v>81.01580618224403</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>254.2327335710397</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,13 +23576,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>71.44310047544873</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>50.14070125298392</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3328844140846</v>
+        <v>89.10478256648288</v>
       </c>
       <c r="H16" t="n">
         <v>147.485201092913</v>
@@ -23703,10 +23703,10 @@
         <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>126.0680064527793</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6775474593211</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>78.57332576164413</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>71.44310047544873</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>71.44310047544823</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>40.10298124615592</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>102.739413241946</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>179.7655044117336</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T20" t="n">
         <v>206.9146911261644</v>
@@ -24028,16 +24028,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>316.7389714021075</v>
+        <v>277.1357563667829</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24056,7 +24056,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>71.4431004754482</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>71.44310047544825</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>69.2058607989679</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I22" t="n">
-        <v>86.01886422056877</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>159.3592483968851</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>13.88742177671844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.4049465917859</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>34.16943826938079</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>365.1465826897024</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>120.9227308028603</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U26" t="n">
         <v>251.0499378478622</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3328844140846</v>
+        <v>128.3593805172499</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
         <v>105.5870378728063</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>76.74146428801464</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T29" t="n">
         <v>206.9146911261644</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>245.8608540982297</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>126.5263542044984</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>98.68459466537274</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>211.7986601983464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>284.1467313685852</v>
       </c>
       <c r="G32" t="n">
-        <v>326.0219299555729</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>25.51131139434465</v>
       </c>
       <c r="S34" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>284.5697852208702</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>323.3231154291384</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>346.2547589797331</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>71.44310047544872</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.44310047544818</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>139.3643706306125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.8610019386828</v>
+        <v>141.3565515044943</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>256.0272166441989</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>269.1450038270117</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>206.9146911261644</v>
@@ -25450,13 +25450,13 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>50.14070125298488</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246436</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>71.44310047544857</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>40.95075877279626</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>132.4662827099151</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I40" t="n">
         <v>105.5870378728063</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>8.135542775386426</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>31.52809888767072</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>50.14070125298436</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>71.44310047544909</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>45.8966551654176</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>81.91120752011851</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.6062992654567</v>
+        <v>47.24019771780007</v>
       </c>
       <c r="H44" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>347.0582305709526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>71.44310047544909</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>50.14070125298431</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>21.30239922246437</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.3328844140846</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>102.7394132419461</v>
       </c>
       <c r="S46" t="n">
-        <v>195.1205252336517</v>
+        <v>141.3565515044942</v>
       </c>
       <c r="T46" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>217.0921165719859</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608583.027622886</v>
+        <v>608583.0276228864</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608583.027622886</v>
+        <v>608583.0276228861</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>608583.0276228861</v>
+        <v>608583.027622886</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>621083.0477201269</v>
+        <v>621083.0477201268</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>621083.0477201267</v>
+        <v>621083.0477201268</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608583.0276228859</v>
+        <v>608583.027622886</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>608583.027622886</v>
+        <v>608583.0276228861</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>634939.1625057047</v>
+      </c>
+      <c r="C2" t="n">
         <v>634939.1625057048</v>
-      </c>
-      <c r="C2" t="n">
-        <v>634939.162505705</v>
       </c>
       <c r="D2" t="n">
         <v>634939.1625057048</v>
       </c>
       <c r="E2" t="n">
-        <v>466826.4754211796</v>
+        <v>466826.4754211793</v>
       </c>
       <c r="F2" t="n">
-        <v>466826.4754211794</v>
+        <v>466826.4754211793</v>
       </c>
       <c r="G2" t="n">
-        <v>466826.4754211794</v>
+        <v>466826.4754211793</v>
       </c>
       <c r="H2" t="n">
-        <v>466826.4754211796</v>
+        <v>466826.4754211793</v>
       </c>
       <c r="I2" t="n">
-        <v>473581.4205711331</v>
+        <v>473581.420571133</v>
       </c>
       <c r="J2" t="n">
-        <v>473581.4205711333</v>
+        <v>473581.420571133</v>
       </c>
       <c r="K2" t="n">
         <v>473581.420571133</v>
       </c>
       <c r="L2" t="n">
-        <v>473581.4205711331</v>
+        <v>473581.420571133</v>
       </c>
       <c r="M2" t="n">
-        <v>466826.4754211795</v>
+        <v>466826.4754211793</v>
       </c>
       <c r="N2" t="n">
+        <v>466826.4754211792</v>
+      </c>
+      <c r="O2" t="n">
+        <v>466826.4754211794</v>
+      </c>
+      <c r="P2" t="n">
         <v>466826.4754211793</v>
-      </c>
-      <c r="O2" t="n">
-        <v>466826.4754211793</v>
-      </c>
-      <c r="P2" t="n">
-        <v>466826.4754211794</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>150597.338246859</v>
+        <v>150597.3382468589</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
+        <v>21793.13801240078</v>
+      </c>
+      <c r="F4" t="n">
         <v>21793.13801240076</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>21793.13801240077</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21793.13801240076</v>
       </c>
       <c r="H4" t="n">
         <v>21793.13801240077</v>
       </c>
       <c r="I4" t="n">
+        <v>25808.34085240598</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25808.34085240596</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25808.34085240599</v>
+      </c>
+      <c r="L4" t="n">
         <v>25808.34085240601</v>
       </c>
-      <c r="J4" t="n">
-        <v>25808.34085240601</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25808.340852406</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25808.340852406</v>
-      </c>
       <c r="M4" t="n">
-        <v>21793.13801240077</v>
+        <v>21793.13801240083</v>
       </c>
       <c r="N4" t="n">
-        <v>21793.13801240076</v>
+        <v>21793.13801240078</v>
       </c>
       <c r="O4" t="n">
-        <v>21793.13801240076</v>
+        <v>21793.13801240078</v>
       </c>
       <c r="P4" t="n">
-        <v>21793.13801240076</v>
+        <v>21793.13801240081</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>57906.41050425676</v>
+      </c>
+      <c r="F5" t="n">
         <v>57906.41050425675</v>
       </c>
-      <c r="F5" t="n">
-        <v>57906.41050425673</v>
-      </c>
       <c r="G5" t="n">
-        <v>57906.41050425673</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425674</v>
@@ -26493,16 +26493,16 @@
         <v>59025.70047253834</v>
       </c>
       <c r="J5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253833</v>
       </c>
       <c r="K5" t="n">
-        <v>59025.70047253834</v>
+        <v>59025.70047253833</v>
       </c>
       <c r="L5" t="n">
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="N5" t="n">
         <v>57906.41050425672</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159662.3125098843</v>
+        <v>159618.1767312031</v>
       </c>
       <c r="C6" t="n">
-        <v>159662.3125098845</v>
+        <v>159618.1767312032</v>
       </c>
       <c r="D6" t="n">
-        <v>159662.3125098843</v>
+        <v>159618.1767312032</v>
       </c>
       <c r="E6" t="n">
-        <v>-537524.6524716022</v>
+        <v>-542991.7781562359</v>
       </c>
       <c r="F6" t="n">
-        <v>387126.9269045221</v>
+        <v>381659.8012198882</v>
       </c>
       <c r="G6" t="n">
-        <v>387126.9269045219</v>
+        <v>381659.8012198884</v>
       </c>
       <c r="H6" t="n">
-        <v>387126.9269045221</v>
+        <v>381659.8012198883</v>
       </c>
       <c r="I6" t="n">
-        <v>383851.9399755406</v>
+        <v>378602.7157473569</v>
       </c>
       <c r="J6" t="n">
-        <v>388747.3792461889</v>
+        <v>383498.1550180053</v>
       </c>
       <c r="K6" t="n">
-        <v>388747.3792461887</v>
+        <v>383498.1550180052</v>
       </c>
       <c r="L6" t="n">
-        <v>388747.3792461887</v>
+        <v>383498.1550180052</v>
       </c>
       <c r="M6" t="n">
-        <v>236529.588657663</v>
+        <v>231062.4629730292</v>
       </c>
       <c r="N6" t="n">
-        <v>387126.9269045218</v>
+        <v>381659.8012198881</v>
       </c>
       <c r="O6" t="n">
-        <v>387126.9269045218</v>
+        <v>381659.8012198884</v>
       </c>
       <c r="P6" t="n">
-        <v>387126.9269045219</v>
+        <v>381659.8012198881</v>
       </c>
     </row>
   </sheetData>
@@ -26749,19 +26749,19 @@
         <v>919.4890146074875</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074875</v>
       </c>
       <c r="G3" t="n">
         <v>919.4890146074873</v>
       </c>
       <c r="H3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="I3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="J3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074874</v>
       </c>
       <c r="K3" t="n">
         <v>919.4890146074873</v>
@@ -26770,16 +26770,16 @@
         <v>919.4890146074873</v>
       </c>
       <c r="M3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="N3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="O3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074871</v>
       </c>
       <c r="P3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074871</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>622.7228616087751</v>
+      </c>
+      <c r="F4" t="n">
         <v>622.7228616087749</v>
       </c>
-      <c r="F4" t="n">
-        <v>622.7228616087748</v>
-      </c>
       <c r="G4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="H4" t="n">
         <v>622.7228616087749</v>
@@ -26813,25 +26813,25 @@
         <v>641.1322360870907</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870906</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870907</v>
+        <v>641.1322360870906</v>
       </c>
       <c r="L4" t="n">
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="P4" t="n">
-        <v>622.7228616087747</v>
+        <v>622.7228616087748</v>
       </c>
     </row>
   </sheetData>
@@ -26971,10 +26971,10 @@
         <v>919.4890146074875</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.964942509355483e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304594</v>
+        <v>604.3134871304592</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.722861608775</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H14" t="n">
-        <v>37.85614822451829</v>
+        <v>37.8561482245183</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025214</v>
       </c>
       <c r="L14" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M14" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857308</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515577</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R14" t="n">
-        <v>232.1963892013571</v>
+        <v>232.1963892013572</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454524</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U14" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,31 +32071,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.3662929321119</v>
+        <v>319.366292932112</v>
       </c>
       <c r="L15" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610807</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755605</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130264</v>
       </c>
       <c r="Q15" t="n">
         <v>252.4604554824181</v>
@@ -32104,13 +32104,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096894</v>
       </c>
       <c r="T15" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153592</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1301163699916256</v>
+        <v>0.1301163699916257</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.658094944374157</v>
+        <v>1.658094944374158</v>
       </c>
       <c r="H16" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445196</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6404853554702</v>
+        <v>192.6404853554703</v>
       </c>
       <c r="L16" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258508</v>
+        <v>259.9139193258509</v>
       </c>
       <c r="N16" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920855</v>
+        <v>234.3641835920856</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q16" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522347</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T16" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598672</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040871</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H20" t="n">
         <v>37.85614822451829</v>
@@ -32472,40 +32472,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J20" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K20" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L20" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M20" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N20" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O20" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P20" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q20" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R20" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S20" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T20" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U20" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H21" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I21" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J21" t="n">
         <v>186.8557817326405</v>
@@ -32560,13 +32560,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M21" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N21" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O21" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P21" t="n">
         <v>377.6671011130263</v>
@@ -32581,7 +32581,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T21" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U21" t="n">
         <v>0.1301163699916256</v>
@@ -32627,7 +32627,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I22" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J22" t="n">
         <v>117.2273125672529</v>
@@ -32636,7 +32636,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L22" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M22" t="n">
         <v>259.9139193258508</v>
@@ -32648,7 +32648,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P22" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q22" t="n">
         <v>138.8428412057306</v>
@@ -32657,13 +32657,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S22" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T22" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H23" t="n">
         <v>37.85614822451829</v>
@@ -32709,40 +32709,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J23" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K23" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L23" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M23" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N23" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O23" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P23" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q23" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R23" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S23" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T23" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U23" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,10 +32782,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H24" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I24" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J24" t="n">
         <v>186.8557817326405</v>
@@ -32797,13 +32797,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N24" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O24" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P24" t="n">
         <v>377.6671011130263</v>
@@ -32818,7 +32818,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T24" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U24" t="n">
         <v>0.1301163699916256</v>
@@ -32864,7 +32864,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I25" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J25" t="n">
         <v>117.2273125672529</v>
@@ -32873,7 +32873,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L25" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M25" t="n">
         <v>259.9139193258508</v>
@@ -32885,7 +32885,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P25" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q25" t="n">
         <v>138.8428412057306</v>
@@ -32894,13 +32894,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S25" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T25" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H26" t="n">
         <v>37.85614822451829</v>
@@ -32946,40 +32946,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J26" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K26" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L26" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M26" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N26" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O26" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P26" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q26" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R26" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S26" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T26" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U26" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H27" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I27" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J27" t="n">
         <v>186.8557817326405</v>
@@ -33034,13 +33034,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M27" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N27" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O27" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P27" t="n">
         <v>377.6671011130263</v>
@@ -33055,7 +33055,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T27" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U27" t="n">
         <v>0.1301163699916256</v>
@@ -33101,7 +33101,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I28" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J28" t="n">
         <v>117.2273125672529</v>
@@ -33110,7 +33110,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L28" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M28" t="n">
         <v>259.9139193258508</v>
@@ -33122,7 +33122,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P28" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q28" t="n">
         <v>138.8428412057306</v>
@@ -33131,13 +33131,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S28" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T28" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I35" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J35" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M35" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R35" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T35" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U35" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H36" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J36" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L36" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R36" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T36" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33827,7 +33827,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O37" t="n">
         <v>234.3641835920855</v>
@@ -33836,19 +33836,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T37" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I38" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J38" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M38" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R38" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T38" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U38" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H39" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J39" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L39" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R39" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T39" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34064,7 +34064,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O40" t="n">
         <v>234.3641835920855</v>
@@ -34073,19 +34073,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T40" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I41" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936378</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M41" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T41" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U41" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H42" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J42" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L42" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R42" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T42" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U42" t="n">
         <v>0.1301163699916256</v>
@@ -34301,7 +34301,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O43" t="n">
         <v>234.3641835920855</v>
@@ -34310,19 +34310,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T43" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678337</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451829</v>
+        <v>37.85614822451828</v>
       </c>
       <c r="I44" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J44" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M44" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088318</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857305</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349519</v>
+        <v>399.1737460349518</v>
       </c>
       <c r="R44" t="n">
-        <v>232.1963892013568</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.23258661454521</v>
+        <v>84.2325866145452</v>
       </c>
       <c r="T44" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H45" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.09423362895072</v>
+        <v>68.0942336289507</v>
       </c>
       <c r="J45" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321119</v>
+        <v>319.3662929321118</v>
       </c>
       <c r="L45" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623807</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130263</v>
+        <v>377.6671011130262</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R45" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096893</v>
+        <v>36.73618846096892</v>
       </c>
       <c r="T45" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U45" t="n">
         <v>0.1301163699916256</v>
@@ -34538,7 +34538,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O46" t="n">
         <v>234.3641835920855</v>
@@ -34547,19 +34547,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.8428412057306</v>
+        <v>138.8428412057305</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522343</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332052</v>
       </c>
       <c r="T46" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598668</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063827</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9900909703316</v>
+        <v>352.5043145717685</v>
       </c>
       <c r="L12" t="n">
         <v>290.8730133158209</v>
       </c>
       <c r="M12" t="n">
-        <v>579.0327042959691</v>
+        <v>358.9874790390624</v>
       </c>
       <c r="N12" t="n">
         <v>383.0429961922272</v>
@@ -35509,10 +35509,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63732142078705</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575409</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891399</v>
       </c>
       <c r="O14" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P14" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962881</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605026</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722504</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.01815506597376</v>
+        <v>60.01815506597381</v>
       </c>
       <c r="K15" t="n">
-        <v>445.9900909703316</v>
+        <v>185.2573896617651</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158209</v>
       </c>
       <c r="M15" t="n">
-        <v>358.9874790390622</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="N15" t="n">
-        <v>383.0429961922271</v>
+        <v>622.7228616087749</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179365</v>
       </c>
       <c r="P15" t="n">
-        <v>253.6606312197543</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058016</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
@@ -35813,19 +35813,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876914</v>
+        <v>299.4977962876915</v>
       </c>
       <c r="N16" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O16" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403624</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>181.524853957753</v>
+        <v>352.5043145717682</v>
       </c>
       <c r="L18" t="n">
         <v>290.8730133158208</v>
@@ -35980,13 +35980,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P18" t="n">
-        <v>392.0348328919239</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q18" t="n">
         <v>322.5559691322457</v>
       </c>
       <c r="R18" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K20" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L20" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M20" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N20" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O20" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P20" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R20" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8669931509812</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L21" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M21" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N21" t="n">
         <v>383.0429961922271</v>
@@ -36220,10 +36220,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>322.5559691322457</v>
+        <v>229.070192733682</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K22" t="n">
         <v>170.3709935295874</v>
@@ -36290,13 +36290,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N22" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O22" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P22" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q22" t="n">
         <v>52.68079795403621</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>205.5783561699799</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K23" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L23" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M23" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N23" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O23" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P23" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.8680561605024</v>
+        <v>184.0453210905482</v>
       </c>
       <c r="R23" t="n">
-        <v>16.61085138722498</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L24" t="n">
-        <v>512.1088373120774</v>
+        <v>480.3582094561351</v>
       </c>
       <c r="M24" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N24" t="n">
         <v>383.0429961922271</v>
@@ -36457,10 +36457,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q24" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R24" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K25" t="n">
         <v>170.3709935295874</v>
@@ -36527,13 +36527,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N25" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O25" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P25" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q25" t="n">
         <v>52.68079795403621</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699788</v>
       </c>
       <c r="K26" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L26" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M26" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N26" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O26" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P26" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q26" t="n">
-        <v>249.7617409635312</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R26" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L27" t="n">
-        <v>641.1322360870907</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M27" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N27" t="n">
         <v>383.0429961922271</v>
@@ -36691,13 +36691,13 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P27" t="n">
-        <v>450.8376179999411</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.4786813963966</v>
+        <v>301.9638775367102</v>
       </c>
       <c r="R27" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K28" t="n">
         <v>170.3709935295874</v>
@@ -36764,13 +36764,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N28" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O28" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P28" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q28" t="n">
         <v>52.68079795403621</v>
@@ -36840,7 +36840,7 @@
         <v>347.5592641161276</v>
       </c>
       <c r="M29" t="n">
-        <v>418.7159795815593</v>
+        <v>491.609664384588</v>
       </c>
       <c r="N29" t="n">
         <v>430.1516543891397</v>
@@ -36849,7 +36849,7 @@
         <v>392.7100487188048</v>
       </c>
       <c r="P29" t="n">
-        <v>373.2131298993168</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
         <v>176.8680561605024</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.01815506597376</v>
+        <v>165.5170988108472</v>
       </c>
       <c r="K30" t="n">
-        <v>425.7620353611132</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L30" t="n">
         <v>290.8730133158208</v>
@@ -36925,16 +36925,16 @@
         <v>383.0429961922271</v>
       </c>
       <c r="O30" t="n">
-        <v>641.1322360870907</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P30" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R30" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>250.1109559575407</v>
       </c>
       <c r="L32" t="n">
-        <v>347.5592641161276</v>
+        <v>354.7365290461742</v>
       </c>
       <c r="M32" t="n">
         <v>418.7159795815593</v>
@@ -37089,10 +37089,10 @@
         <v>300.319445096288</v>
       </c>
       <c r="Q32" t="n">
-        <v>249.7617409635312</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R32" t="n">
-        <v>16.61085138722498</v>
+        <v>82.32727126020743</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
-        <v>181.524853957753</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L33" t="n">
-        <v>641.1322360870907</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
-        <v>440.041367999898</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N33" t="n">
         <v>383.0429961922271</v>
@@ -37168,10 +37168,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.4786813963966</v>
+        <v>301.9638775367106</v>
       </c>
       <c r="R33" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P35" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R35" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722605</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>69.98609258703226</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9900909703316</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N36" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P36" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q36" t="n">
-        <v>322.5559691322457</v>
+        <v>229.0701927336829</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63732142078702</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K37" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L37" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M37" t="n">
         <v>299.4977962876914</v>
@@ -37478,13 +37478,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O37" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P37" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P38" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.01815506597376</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K39" t="n">
-        <v>347.5725475873011</v>
+        <v>329.8669931509813</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N39" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P39" t="n">
-        <v>562.1554623386332</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q39" t="n">
-        <v>112.4786813963966</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K40" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L40" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M40" t="n">
         <v>299.4977962876914</v>
@@ -37715,13 +37715,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O40" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P40" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669515</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P41" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722493</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.01815506597376</v>
+        <v>60.0181550659737</v>
       </c>
       <c r="K42" t="n">
-        <v>445.9900909703316</v>
+        <v>445.9900909703314</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N42" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P42" t="n">
-        <v>253.6606312197538</v>
+        <v>253.6606312197548</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K43" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L43" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M43" t="n">
         <v>299.4977962876914</v>
@@ -37952,13 +37952,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O43" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P43" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575406</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815591</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891395</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P44" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605023</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722467</v>
+        <v>16.61085138722605</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063826</v>
+        <v>186.1091904063825</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8669931509803</v>
+        <v>181.5248539577528</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N45" t="n">
-        <v>383.0429961922271</v>
+        <v>531.3851353854553</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P45" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322457</v>
+        <v>322.5559691322455</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63732142078702</v>
+        <v>22.63732142078699</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058011</v>
       </c>
       <c r="K46" t="n">
-        <v>170.3709935295874</v>
+        <v>170.3709935295873</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M46" t="n">
         <v>299.4977962876914</v>
@@ -38189,13 +38189,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P46" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403615</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_18_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1930630.890785837</v>
+        <v>1958096.23475084</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6486630.972584565</v>
+        <v>6486630.972584562</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>274.3314826762635</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T11" t="n">
-        <v>206.9146911261644</v>
+        <v>198.0860887882688</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>73.62611191793515</v>
       </c>
       <c r="G12" t="n">
         <v>135.3657483393379</v>
       </c>
       <c r="H12" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I12" t="n">
-        <v>21.30239922246435</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>180.2518826854723</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>62.46756550112549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.3328844140846</v>
       </c>
       <c r="H13" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>102.739413241946</v>
       </c>
       <c r="S13" t="n">
-        <v>195.1205252336517</v>
+        <v>42.89262251802191</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.6062992654567</v>
+        <v>359.3410366913555</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>95.00823514637332</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,13 +1688,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>101.2653985128675</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>107.504379202417</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H15" t="n">
-        <v>93.13436112172582</v>
+        <v>93.13436112172583</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>77.22810184760171</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.95515111474954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S16" t="n">
         <v>195.1205252336517</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2285878140705</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>92.59534431168643</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.6062992654567</v>
+        <v>312.7718902346769</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>95.09008317441825</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1979,7 +1979,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U18" t="n">
-        <v>154.368165235535</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>41.09549752694919</v>
+        <v>39.16793172155901</v>
       </c>
       <c r="U19" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.00549416136161</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>92.5953443116862</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>77.22810184760127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.5806648262181</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>238.7465375665095</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>247.5167973448263</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>112.2645243771884</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>53.76397372915818</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>218.6443397428502</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H26" t="n">
-        <v>180.6959230883886</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2690,10 +2690,10 @@
         <v>192.192932426668</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8112657109831</v>
+        <v>225.8112657109832</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494252</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>37.97350389683471</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.8610019386828</v>
+        <v>205.1110231113551</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,10 +2800,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I29" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.0677274551143</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>259.7115844515552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3657483393379</v>
+        <v>135.3657483393378</v>
       </c>
       <c r="H30" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I30" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>187.8384036712183</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>77.22810184760124</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>153.44859463681</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>122.7293143731263</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,10 +3125,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H33" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I33" t="n">
-        <v>21.30239922246436</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>225.8112657109832</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494252</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.22810184760138</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>195.1205252336517</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>145.1664468320974</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>59.4107262343422</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>229.7213210305756</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.6062992654567</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>63.92264786388922</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H36" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I36" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>134.9469826428689</v>
       </c>
       <c r="T36" t="n">
-        <v>192.192932426668</v>
+        <v>120.7498319512208</v>
       </c>
       <c r="U36" t="n">
         <v>225.8112657109832</v>
@@ -3477,7 +3477,7 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T37" t="n">
-        <v>79.5044504341885</v>
+        <v>79.50445043418918</v>
       </c>
       <c r="U37" t="n">
         <v>286.2285878140705</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>142.461295438445</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>47.03070521233742</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3599,10 +3599,10 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H39" t="n">
-        <v>93.13436112172583</v>
+        <v>93.13436112172582</v>
       </c>
       <c r="I39" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>192.192932426668</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8112657109832</v>
+        <v>154.3681652355359</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>134.3298847280289</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.881221409141</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.3328844140846</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>195.1205252336517</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>5.682438156101229</v>
       </c>
       <c r="U40" t="n">
         <v>286.2285878140705</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>305.7927925383663</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>67.96895394968166</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>116.6519401963137</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0499378478622</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,7 +3836,7 @@
         <v>135.3657483393379</v>
       </c>
       <c r="H42" t="n">
-        <v>93.13436112172583</v>
+        <v>42.99365986874283</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.80628138988455</v>
+        <v>134.9469826428689</v>
       </c>
       <c r="T42" t="n">
         <v>192.192932426668</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>84.42167689396608</v>
+        <v>1.988429675158817</v>
       </c>
       <c r="H43" t="n">
         <v>147.485201092913</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>364.3661015476566</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>124.7874829717001</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.9146911261644</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>164.7724511669381</v>
       </c>
     </row>
     <row r="45">
@@ -4067,10 +4067,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>94.92851114039954</v>
       </c>
       <c r="G45" t="n">
-        <v>85.22504708635361</v>
+        <v>135.3657483393379</v>
       </c>
       <c r="H45" t="n">
         <v>93.13436112172583</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>106.0157426671687</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.76397372915756</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>220.8610019386828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1908.420949662744</v>
+        <v>1134.431557619579</v>
       </c>
       <c r="C11" t="n">
-        <v>1539.458432722332</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="D11" t="n">
-        <v>1262.35592496853</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="E11" t="n">
-        <v>876.5676723702861</v>
+        <v>765.4690406791669</v>
       </c>
       <c r="F11" t="n">
-        <v>465.5817675806785</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="G11" t="n">
-        <v>49.81782892870201</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H11" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I11" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J11" t="n">
         <v>181.1756535819836</v>
       </c>
       <c r="K11" t="n">
-        <v>428.7854999799492</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L11" t="n">
-        <v>772.8691714549157</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M11" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N11" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O11" t="n">
-        <v>2002.031077317525</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P11" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2474.446703561748</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R11" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S11" t="n">
-        <v>2490.891446435101</v>
+        <v>2364.843483837422</v>
       </c>
       <c r="T11" t="n">
-        <v>2281.886707923823</v>
+        <v>2164.756525465434</v>
       </c>
       <c r="U11" t="n">
-        <v>2281.886707923823</v>
+        <v>1911.170729659512</v>
       </c>
       <c r="V11" t="n">
-        <v>2281.886707923823</v>
+        <v>1911.170729659512</v>
       </c>
       <c r="W11" t="n">
-        <v>2281.886707923823</v>
+        <v>1911.170729659512</v>
       </c>
       <c r="X11" t="n">
-        <v>1908.420949662744</v>
+        <v>1911.170729659512</v>
       </c>
       <c r="Y11" t="n">
-        <v>1908.420949662744</v>
+        <v>1521.0313976837</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3030471966489</v>
+        <v>859.1382992416502</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8500179155219</v>
+        <v>684.6852699605232</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9156082542706</v>
+        <v>535.7508602992719</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6781532488152</v>
+        <v>376.5134052938164</v>
       </c>
       <c r="F12" t="n">
         <v>302.1435952757001</v>
@@ -5114,58 +5114,58 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H12" t="n">
-        <v>71.33540390088822</v>
+        <v>71.33540390088821</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J12" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K12" t="n">
-        <v>583.0451988570717</v>
+        <v>413.7755328491961</v>
       </c>
       <c r="L12" t="n">
-        <v>871.0094820397344</v>
+        <v>795.4770199476294</v>
       </c>
       <c r="M12" t="n">
-        <v>1226.407086288406</v>
+        <v>1411.972652940316</v>
       </c>
       <c r="N12" t="n">
-        <v>1605.619652518711</v>
+        <v>1791.185219170621</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.305270232468</v>
+        <v>2115.870836884378</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.561036994177</v>
+        <v>2357.126603646087</v>
       </c>
       <c r="Q12" t="n">
-        <v>2490.891446435101</v>
+        <v>2468.48049822852</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.891446435101</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S12" t="n">
-        <v>2354.581362957455</v>
+        <v>2354.581362957454</v>
       </c>
       <c r="T12" t="n">
-        <v>2160.447087779002</v>
+        <v>2160.447087779001</v>
       </c>
       <c r="U12" t="n">
-        <v>1932.354900192151</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V12" t="n">
-        <v>1697.202791960408</v>
+        <v>1697.202791960407</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.5579187074186</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="C13" t="n">
-        <v>536.5579187074186</v>
+        <v>662.7505239810226</v>
       </c>
       <c r="D13" t="n">
-        <v>473.4593676961807</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E13" t="n">
-        <v>473.4593676961807</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F13" t="n">
-        <v>473.4593676961807</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G13" t="n">
-        <v>305.4463531364993</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="H13" t="n">
-        <v>156.4714025375973</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="I13" t="n">
-        <v>49.81782892870201</v>
+        <v>49.81782892870199</v>
       </c>
       <c r="J13" t="n">
-        <v>73.44728005477637</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K13" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L13" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M13" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N13" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O13" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P13" t="n">
         <v>1557.066378230431</v>
@@ -5226,25 +5226,25 @@
         <v>1505.443183112052</v>
       </c>
       <c r="S13" t="n">
-        <v>1308.351743482101</v>
+        <v>1462.117301780717</v>
       </c>
       <c r="T13" t="n">
-        <v>1308.351743482101</v>
+        <v>1462.117301780717</v>
       </c>
       <c r="U13" t="n">
-        <v>1019.231957811323</v>
+        <v>1462.117301780717</v>
       </c>
       <c r="V13" t="n">
-        <v>764.5474696054359</v>
+        <v>1462.117301780717</v>
       </c>
       <c r="W13" t="n">
-        <v>764.5474696054359</v>
+        <v>1462.117301780717</v>
       </c>
       <c r="X13" t="n">
-        <v>536.5579187074186</v>
+        <v>1234.127750882699</v>
       </c>
       <c r="Y13" t="n">
-        <v>536.5579187074186</v>
+        <v>1013.335171739169</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1631.318441908942</v>
+        <v>1647.18075642973</v>
       </c>
       <c r="C14" t="n">
-        <v>1262.35592496853</v>
+        <v>1278.218239489319</v>
       </c>
       <c r="D14" t="n">
-        <v>1262.35592496853</v>
+        <v>1278.218239489319</v>
       </c>
       <c r="E14" t="n">
-        <v>876.5676723702861</v>
+        <v>892.4299868910743</v>
       </c>
       <c r="F14" t="n">
-        <v>465.5817675806785</v>
+        <v>481.4440821014668</v>
       </c>
       <c r="G14" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="H14" t="n">
-        <v>49.81782892870199</v>
+        <v>118.4733379687844</v>
       </c>
       <c r="I14" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J14" t="n">
-        <v>181.1756535819834</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K14" t="n">
         <v>428.7854999799488</v>
       </c>
       <c r="L14" t="n">
-        <v>772.8691714549152</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M14" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N14" t="n">
         <v>1613.248129085907</v>
@@ -5305,25 +5305,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S14" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="T14" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="U14" t="n">
-        <v>2490.8914464351</v>
+        <v>2364.843483837423</v>
       </c>
       <c r="V14" t="n">
-        <v>2490.8914464351</v>
+        <v>2033.780596493852</v>
       </c>
       <c r="W14" t="n">
-        <v>2394.923532145834</v>
+        <v>2033.780596493852</v>
       </c>
       <c r="X14" t="n">
-        <v>2021.457773884754</v>
+        <v>2033.780596493852</v>
       </c>
       <c r="Y14" t="n">
-        <v>1631.318441908942</v>
+        <v>2033.780596493852</v>
       </c>
     </row>
     <row r="15">
@@ -5336,46 +5336,46 @@
         <v>859.1382992416507</v>
       </c>
       <c r="C15" t="n">
-        <v>684.6852699605237</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D15" t="n">
-        <v>535.7508602992724</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E15" t="n">
-        <v>427.1605782766289</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F15" t="n">
-        <v>280.6260203035139</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G15" t="n">
-        <v>143.8929411728695</v>
+        <v>165.4105161450557</v>
       </c>
       <c r="H15" t="n">
-        <v>49.81782892870199</v>
+        <v>71.33540390088822</v>
       </c>
       <c r="I15" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J15" t="n">
-        <v>109.2358024440161</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K15" t="n">
-        <v>292.6406182091635</v>
+        <v>675.596117491649</v>
       </c>
       <c r="L15" t="n">
-        <v>580.6049013918262</v>
+        <v>963.5604006743116</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.100534384513</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N15" t="n">
-        <v>1813.596167377201</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.281785090958</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P15" t="n">
-        <v>2379.537551852667</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q15" t="n">
         <v>2490.8914464351</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>127.8260126131482</v>
+        <v>315.765339563888</v>
       </c>
       <c r="C16" t="n">
-        <v>127.8260126131482</v>
+        <v>315.765339563888</v>
       </c>
       <c r="D16" t="n">
-        <v>127.8260126131482</v>
+        <v>315.765339563888</v>
       </c>
       <c r="E16" t="n">
-        <v>127.8260126131482</v>
+        <v>315.765339563888</v>
       </c>
       <c r="F16" t="n">
-        <v>127.8260126131482</v>
+        <v>315.765339563888</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81782892870199</v>
+        <v>147.7523250042066</v>
       </c>
       <c r="H16" t="n">
-        <v>49.81782892870199</v>
+        <v>147.7523250042066</v>
       </c>
       <c r="I16" t="n">
         <v>49.81782892870199</v>
       </c>
       <c r="J16" t="n">
-        <v>73.44728005477636</v>
+        <v>73.44728005477633</v>
       </c>
       <c r="K16" t="n">
-        <v>242.1145636490679</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L16" t="n">
-        <v>513.4770511394357</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M16" t="n">
-        <v>809.9798694642502</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N16" t="n">
-        <v>1104.867129907539</v>
+        <v>1104.867129907538</v>
       </c>
       <c r="O16" t="n">
-        <v>1361.226948298603</v>
+        <v>1361.226948298602</v>
       </c>
       <c r="P16" t="n">
         <v>1557.066378230431</v>
@@ -5460,28 +5460,28 @@
         <v>1609.220368204927</v>
       </c>
       <c r="R16" t="n">
-        <v>1609.220368204927</v>
+        <v>1505.443183112052</v>
       </c>
       <c r="S16" t="n">
-        <v>1412.128928574976</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="T16" t="n">
-        <v>1189.037007424791</v>
+        <v>1308.351743482101</v>
       </c>
       <c r="U16" t="n">
-        <v>899.917221754013</v>
+        <v>1019.231957811322</v>
       </c>
       <c r="V16" t="n">
-        <v>645.2327335481261</v>
+        <v>764.5474696054355</v>
       </c>
       <c r="W16" t="n">
-        <v>355.8155635111655</v>
+        <v>764.5474696054355</v>
       </c>
       <c r="X16" t="n">
-        <v>127.8260126131482</v>
+        <v>536.5579187074181</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.8260126131482</v>
+        <v>315.765339563888</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1714.152274395166</v>
+        <v>776.734935975559</v>
       </c>
       <c r="C17" t="n">
-        <v>1620.621623575281</v>
+        <v>776.734935975559</v>
       </c>
       <c r="D17" t="n">
-        <v>1262.35592496853</v>
+        <v>776.734935975559</v>
       </c>
       <c r="E17" t="n">
-        <v>876.5676723702861</v>
+        <v>776.734935975559</v>
       </c>
       <c r="F17" t="n">
-        <v>465.5817675806785</v>
+        <v>365.7490311859514</v>
       </c>
       <c r="G17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="H17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="I17" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J17" t="n">
-        <v>181.1756535819832</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K17" t="n">
         <v>428.7854999799488</v>
@@ -5524,7 +5524,7 @@
         <v>772.8691714549152</v>
       </c>
       <c r="M17" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.397991240658</v>
       </c>
       <c r="N17" t="n">
         <v>1613.248129085907</v>
@@ -5536,31 +5536,31 @@
         <v>2299.347327962849</v>
       </c>
       <c r="Q17" t="n">
-        <v>2474.446703561747</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R17" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S17" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="U17" t="n">
-        <v>2490.8914464351</v>
+        <v>2237.305650629177</v>
       </c>
       <c r="V17" t="n">
-        <v>2490.8914464351</v>
+        <v>1906.242763285607</v>
       </c>
       <c r="W17" t="n">
-        <v>2490.8914464351</v>
+        <v>1553.474108015492</v>
       </c>
       <c r="X17" t="n">
-        <v>2490.8914464351</v>
+        <v>1553.474108015492</v>
       </c>
       <c r="Y17" t="n">
-        <v>2100.752114459288</v>
+        <v>1163.334776039681</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>607.9156082542706</v>
       </c>
       <c r="E18" t="n">
-        <v>448.6781532488152</v>
+        <v>448.6781532488151</v>
       </c>
       <c r="F18" t="n">
         <v>302.1435952757001</v>
@@ -5588,58 +5588,58 @@
         <v>165.4105161450557</v>
       </c>
       <c r="H18" t="n">
-        <v>71.33540390088822</v>
+        <v>71.3354039008882</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J18" t="n">
-        <v>234.0659274310208</v>
+        <v>234.0659274310207</v>
       </c>
       <c r="K18" t="n">
-        <v>583.0451988570713</v>
+        <v>675.5961174916489</v>
       </c>
       <c r="L18" t="n">
-        <v>871.0094820397339</v>
+        <v>963.5604006743115</v>
       </c>
       <c r="M18" t="n">
-        <v>1226.407086288405</v>
+        <v>1318.958004922983</v>
       </c>
       <c r="N18" t="n">
-        <v>1605.61965251871</v>
+        <v>1698.170571153288</v>
       </c>
       <c r="O18" t="n">
-        <v>1930.305270232467</v>
+        <v>2022.856188867045</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.561036994176</v>
+        <v>2264.111955628754</v>
       </c>
       <c r="Q18" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R18" t="n">
-        <v>2490.8914464351</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="S18" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957453</v>
       </c>
       <c r="T18" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779</v>
       </c>
       <c r="U18" t="n">
-        <v>2004.519648147148</v>
+        <v>1932.354900192149</v>
       </c>
       <c r="V18" t="n">
-        <v>1769.367539915405</v>
+        <v>1697.202791960406</v>
       </c>
       <c r="W18" t="n">
-        <v>1515.130183187204</v>
+        <v>1442.965435232205</v>
       </c>
       <c r="X18" t="n">
-        <v>1307.278682981671</v>
+        <v>1235.113935026672</v>
       </c>
       <c r="Y18" t="n">
-        <v>1099.518384216717</v>
+        <v>1027.353636261718</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.6957415851958</v>
+        <v>770.3272659581434</v>
       </c>
       <c r="C19" t="n">
-        <v>513.6957415851958</v>
+        <v>601.3910830302365</v>
       </c>
       <c r="D19" t="n">
-        <v>513.6957415851958</v>
+        <v>451.2744436179008</v>
       </c>
       <c r="E19" t="n">
-        <v>513.6957415851958</v>
+        <v>303.3613500355077</v>
       </c>
       <c r="F19" t="n">
-        <v>366.8057940872854</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="G19" t="n">
-        <v>198.792779527604</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="H19" t="n">
-        <v>49.81782892870199</v>
+        <v>156.4714025375973</v>
       </c>
       <c r="I19" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870198</v>
       </c>
       <c r="J19" t="n">
-        <v>73.44728005477633</v>
+        <v>73.4472800547763</v>
       </c>
       <c r="K19" t="n">
         <v>242.1145636490678</v>
       </c>
       <c r="L19" t="n">
-        <v>513.4770511394356</v>
+        <v>513.4770511394355</v>
       </c>
       <c r="M19" t="n">
-        <v>809.9798694642501</v>
+        <v>809.97986946425</v>
       </c>
       <c r="N19" t="n">
         <v>1104.867129907538</v>
@@ -5694,31 +5694,31 @@
         <v>1557.066378230431</v>
       </c>
       <c r="Q19" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="R19" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="S19" t="n">
-        <v>1609.220368204927</v>
+        <v>1609.220368204926</v>
       </c>
       <c r="T19" t="n">
-        <v>1567.709764642352</v>
+        <v>1569.656800809412</v>
       </c>
       <c r="U19" t="n">
-        <v>1278.589978971574</v>
+        <v>1280.537015138634</v>
       </c>
       <c r="V19" t="n">
-        <v>1023.905490765687</v>
+        <v>1280.537015138634</v>
       </c>
       <c r="W19" t="n">
-        <v>734.488320728726</v>
+        <v>991.1198451016735</v>
       </c>
       <c r="X19" t="n">
-        <v>734.488320728726</v>
+        <v>991.1198451016735</v>
       </c>
       <c r="Y19" t="n">
-        <v>513.6957415851958</v>
+        <v>770.3272659581434</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1620.621623575281</v>
+        <v>1631.318441908942</v>
       </c>
       <c r="C20" t="n">
-        <v>1620.621623575281</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="D20" t="n">
         <v>1262.35592496853</v>
@@ -5758,7 +5758,7 @@
         <v>428.7854999799487</v>
       </c>
       <c r="L20" t="n">
-        <v>772.8691714549154</v>
+        <v>772.869171454915</v>
       </c>
       <c r="M20" t="n">
         <v>1187.397991240659</v>
@@ -5770,7 +5770,7 @@
         <v>2002.031077317524</v>
       </c>
       <c r="P20" t="n">
-        <v>2299.34732796285</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q20" t="n">
         <v>2474.446703561747</v>
@@ -5779,25 +5779,25 @@
         <v>2490.8914464351</v>
       </c>
       <c r="S20" t="n">
-        <v>2490.8914464351</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="T20" t="n">
-        <v>2490.8914464351</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="U20" t="n">
-        <v>2490.8914464351</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="V20" t="n">
-        <v>2490.8914464351</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="W20" t="n">
-        <v>2490.8914464351</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="X20" t="n">
-        <v>2397.360795615215</v>
+        <v>2408.057613948876</v>
       </c>
       <c r="Y20" t="n">
-        <v>2007.221463639403</v>
+        <v>2017.918281973064</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>234.0659274310208</v>
       </c>
       <c r="K21" t="n">
-        <v>675.596117491649</v>
+        <v>583.0451988570712</v>
       </c>
       <c r="L21" t="n">
-        <v>963.5604006743116</v>
+        <v>871.0094820397338</v>
       </c>
       <c r="M21" t="n">
-        <v>1318.958004922983</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N21" t="n">
-        <v>1698.170571153288</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O21" t="n">
-        <v>2022.856188867045</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P21" t="n">
-        <v>2264.111955628754</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q21" t="n">
         <v>2490.8914464351</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>127.8260126131477</v>
+        <v>671.6302864898128</v>
       </c>
       <c r="C22" t="n">
-        <v>127.8260126131477</v>
+        <v>502.6941035619059</v>
       </c>
       <c r="D22" t="n">
-        <v>127.8260126131477</v>
+        <v>502.6941035619059</v>
       </c>
       <c r="E22" t="n">
-        <v>49.81782892870199</v>
+        <v>354.7810099795128</v>
       </c>
       <c r="F22" t="n">
-        <v>49.81782892870199</v>
+        <v>354.7810099795128</v>
       </c>
       <c r="G22" t="n">
-        <v>49.81782892870199</v>
+        <v>186.7679954198314</v>
       </c>
       <c r="H22" t="n">
         <v>49.81782892870199</v>
@@ -5943,19 +5943,19 @@
         <v>1189.037007424791</v>
       </c>
       <c r="U22" t="n">
-        <v>899.9172217540125</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="V22" t="n">
-        <v>645.2327335481257</v>
+        <v>1189.037007424791</v>
       </c>
       <c r="W22" t="n">
-        <v>355.8155635111651</v>
+        <v>899.6198373878301</v>
       </c>
       <c r="X22" t="n">
-        <v>127.8260126131477</v>
+        <v>671.6302864898128</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.8260126131477</v>
+        <v>671.6302864898128</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1414.32401404735</v>
+        <v>1435.021117038315</v>
       </c>
       <c r="C23" t="n">
-        <v>1045.361497106938</v>
+        <v>1193.862998284265</v>
       </c>
       <c r="D23" t="n">
-        <v>687.0957985001876</v>
+        <v>835.5972996775147</v>
       </c>
       <c r="E23" t="n">
-        <v>301.3075459019433</v>
+        <v>835.5972996775147</v>
       </c>
       <c r="F23" t="n">
-        <v>51.29057888696726</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="G23" t="n">
-        <v>51.29057888696726</v>
+        <v>424.6113948879072</v>
       </c>
       <c r="H23" t="n">
-        <v>51.29057888696726</v>
+        <v>119.9460879270497</v>
       </c>
       <c r="I23" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J23" t="n">
-        <v>182.6484035402487</v>
+        <v>254.8131514952467</v>
       </c>
       <c r="K23" t="n">
-        <v>430.258249938214</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L23" t="n">
-        <v>774.3419214131804</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M23" t="n">
-        <v>1188.870741198924</v>
+        <v>1261.035489153922</v>
       </c>
       <c r="N23" t="n">
-        <v>1614.720879044173</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O23" t="n">
-        <v>2003.503827275789</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P23" t="n">
-        <v>2300.820077921115</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q23" t="n">
-        <v>2483.024945800757</v>
+        <v>2548.08420147501</v>
       </c>
       <c r="R23" t="n">
         <v>2564.528944348363</v>
@@ -6028,13 +6028,13 @@
         <v>2564.528944348363</v>
       </c>
       <c r="W23" t="n">
-        <v>2564.528944348363</v>
+        <v>2211.760289078249</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.063186087283</v>
+        <v>2211.760289078249</v>
       </c>
       <c r="Y23" t="n">
-        <v>1800.923854111471</v>
+        <v>1821.620957102437</v>
       </c>
     </row>
     <row r="24">
@@ -6053,10 +6053,10 @@
         <v>609.3883582125359</v>
       </c>
       <c r="E24" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F24" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G24" t="n">
         <v>166.883266103321</v>
@@ -6071,22 +6071,22 @@
         <v>235.5386773892861</v>
       </c>
       <c r="K24" t="n">
-        <v>677.0688674499143</v>
+        <v>415.2482828074615</v>
       </c>
       <c r="L24" t="n">
-        <v>1152.623494811488</v>
+        <v>703.2125659901241</v>
       </c>
       <c r="M24" t="n">
-        <v>1508.021099060159</v>
+        <v>1058.610170238796</v>
       </c>
       <c r="N24" t="n">
-        <v>1887.233665290464</v>
+        <v>1437.822736469101</v>
       </c>
       <c r="O24" t="n">
-        <v>2211.919283004221</v>
+        <v>1762.508354182858</v>
       </c>
       <c r="P24" t="n">
-        <v>2453.17504976593</v>
+        <v>2319.042261898105</v>
       </c>
       <c r="Q24" t="n">
         <v>2564.528944348363</v>
@@ -6104,7 +6104,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V24" t="n">
-        <v>1770.84028987367</v>
+        <v>1770.840289873671</v>
       </c>
       <c r="W24" t="n">
         <v>1516.602933145469</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>907.3834494665961</v>
+        <v>105.5976230578341</v>
       </c>
       <c r="C25" t="n">
-        <v>738.4472665386892</v>
+        <v>105.5976230578341</v>
       </c>
       <c r="D25" t="n">
-        <v>588.3306271263534</v>
+        <v>105.5976230578341</v>
       </c>
       <c r="E25" t="n">
-        <v>474.932117654446</v>
+        <v>105.5976230578341</v>
       </c>
       <c r="F25" t="n">
-        <v>474.932117654446</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G25" t="n">
-        <v>306.9191030947646</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H25" t="n">
-        <v>157.9441524958626</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I25" t="n">
         <v>51.29057888696726</v>
@@ -6171,28 +6171,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R25" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S25" t="n">
-        <v>1309.824493440366</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T25" t="n">
-        <v>1309.824493440366</v>
+        <v>1387.601197013007</v>
       </c>
       <c r="U25" t="n">
-        <v>1309.824493440366</v>
+        <v>1098.481411342229</v>
       </c>
       <c r="V25" t="n">
-        <v>1309.824493440366</v>
+        <v>843.7969231363421</v>
       </c>
       <c r="W25" t="n">
-        <v>1309.824493440366</v>
+        <v>554.3797530993816</v>
       </c>
       <c r="X25" t="n">
-        <v>1309.824493440366</v>
+        <v>326.3902022013642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1089.031914296836</v>
+        <v>105.5976230578341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1787.789772308429</v>
+        <v>1580.07098568435</v>
       </c>
       <c r="C26" t="n">
-        <v>1418.827255368017</v>
+        <v>1211.108468743938</v>
       </c>
       <c r="D26" t="n">
-        <v>1060.561556761267</v>
+        <v>852.8427701371879</v>
       </c>
       <c r="E26" t="n">
-        <v>1060.561556761267</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="F26" t="n">
-        <v>649.5756519716595</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G26" t="n">
-        <v>233.811713319683</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H26" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I26" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J26" t="n">
-        <v>254.8131514952462</v>
+        <v>254.8131514952467</v>
       </c>
       <c r="K26" t="n">
-        <v>502.4229978932116</v>
+        <v>502.4229978932121</v>
       </c>
       <c r="L26" t="n">
-        <v>846.5066693681781</v>
+        <v>846.5066693681786</v>
       </c>
       <c r="M26" t="n">
         <v>1261.035489153922</v>
       </c>
       <c r="N26" t="n">
-        <v>1686.88562699917</v>
+        <v>1686.885626999171</v>
       </c>
       <c r="O26" t="n">
-        <v>2075.668575230787</v>
+        <v>2075.668575230788</v>
       </c>
       <c r="P26" t="n">
-        <v>2372.984825876112</v>
+        <v>2372.984825876113</v>
       </c>
       <c r="Q26" t="n">
         <v>2548.08420147501</v>
@@ -6268,10 +6268,10 @@
         <v>2564.528944348363</v>
       </c>
       <c r="X26" t="n">
-        <v>2564.528944348363</v>
+        <v>2191.063186087283</v>
       </c>
       <c r="Y26" t="n">
-        <v>2174.389612372551</v>
+        <v>1800.923854111471</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>932.7757971549139</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C27" t="n">
-        <v>758.3227678737869</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D27" t="n">
-        <v>609.3883582125356</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E27" t="n">
-        <v>450.1509032070802</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6163452339651</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G27" t="n">
-        <v>166.8832661033208</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H27" t="n">
         <v>72.80815385915346</v>
       </c>
       <c r="I27" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J27" t="n">
-        <v>235.538677389286</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K27" t="n">
-        <v>677.0688674499143</v>
+        <v>656.6826967703346</v>
       </c>
       <c r="L27" t="n">
-        <v>965.0331506325768</v>
+        <v>944.6469799529972</v>
       </c>
       <c r="M27" t="n">
-        <v>1320.430754881249</v>
+        <v>1300.044584201669</v>
       </c>
       <c r="N27" t="n">
-        <v>1699.643321111553</v>
+        <v>1679.257150431974</v>
       </c>
       <c r="O27" t="n">
-        <v>2024.32893882531</v>
+        <v>2003.942768145731</v>
       </c>
       <c r="P27" t="n">
-        <v>2265.584705587019</v>
+        <v>2245.19853490744</v>
       </c>
       <c r="Q27" t="n">
         <v>2564.528944348363</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>387.6773865249635</v>
+        <v>518.3951834578864</v>
       </c>
       <c r="C28" t="n">
-        <v>387.6773865249635</v>
+        <v>518.3951834578864</v>
       </c>
       <c r="D28" t="n">
-        <v>237.5607471126278</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="E28" t="n">
-        <v>89.64765353023463</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="F28" t="n">
-        <v>89.64765353023463</v>
+        <v>368.2785440455507</v>
       </c>
       <c r="G28" t="n">
-        <v>51.29057888696725</v>
+        <v>200.2655294858693</v>
       </c>
       <c r="H28" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I28" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J28" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K28" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L28" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M28" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N28" t="n">
         <v>1106.339879865804</v>
@@ -6408,28 +6408,28 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R28" t="n">
-        <v>1506.915933070317</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S28" t="n">
-        <v>1309.824493440366</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="T28" t="n">
-        <v>1086.732572290181</v>
+        <v>1403.510266535561</v>
       </c>
       <c r="U28" t="n">
-        <v>1086.732572290181</v>
+        <v>1403.510266535561</v>
       </c>
       <c r="V28" t="n">
-        <v>1086.732572290181</v>
+        <v>1148.825778329674</v>
       </c>
       <c r="W28" t="n">
-        <v>797.3154022532206</v>
+        <v>1148.825778329674</v>
       </c>
       <c r="X28" t="n">
-        <v>569.3258513552032</v>
+        <v>920.8362274316563</v>
       </c>
       <c r="Y28" t="n">
-        <v>569.3258513552032</v>
+        <v>700.0436482881262</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1562.825515224677</v>
+        <v>1468.972353993231</v>
       </c>
       <c r="C29" t="n">
-        <v>1193.862998284265</v>
+        <v>1100.009837052819</v>
       </c>
       <c r="D29" t="n">
-        <v>835.5972996775147</v>
+        <v>741.744138446069</v>
       </c>
       <c r="E29" t="n">
-        <v>835.5972996775147</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="F29" t="n">
-        <v>424.6113948879072</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="G29" t="n">
-        <v>424.6113948879072</v>
+        <v>355.9558858478247</v>
       </c>
       <c r="H29" t="n">
-        <v>119.9460879270497</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I29" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J29" t="n">
-        <v>182.6484035402486</v>
+        <v>189.753895820994</v>
       </c>
       <c r="K29" t="n">
-        <v>430.2582499382139</v>
+        <v>437.3637422189594</v>
       </c>
       <c r="L29" t="n">
-        <v>774.3419214131802</v>
+        <v>781.4474136939259</v>
       </c>
       <c r="M29" t="n">
-        <v>1261.035489153922</v>
+        <v>1195.97623347967</v>
       </c>
       <c r="N29" t="n">
-        <v>1686.88562699917</v>
+        <v>1621.826371324918</v>
       </c>
       <c r="O29" t="n">
-        <v>2075.668575230787</v>
+        <v>2010.609319556535</v>
       </c>
       <c r="P29" t="n">
-        <v>2372.984825876112</v>
+        <v>2307.92557020186</v>
       </c>
       <c r="Q29" t="n">
-        <v>2548.08420147501</v>
+        <v>2483.024945800757</v>
       </c>
       <c r="R29" t="n">
         <v>2564.528944348363</v>
@@ -6496,19 +6496,19 @@
         <v>2564.528944348363</v>
       </c>
       <c r="U29" t="n">
-        <v>2564.528944348363</v>
+        <v>2310.943148542442</v>
       </c>
       <c r="V29" t="n">
-        <v>2564.528944348363</v>
+        <v>1979.880261198871</v>
       </c>
       <c r="W29" t="n">
-        <v>2211.760289078248</v>
+        <v>1842.438112254311</v>
       </c>
       <c r="X29" t="n">
-        <v>2211.760289078248</v>
+        <v>1468.972353993231</v>
       </c>
       <c r="Y29" t="n">
-        <v>1949.425355288799</v>
+        <v>1468.972353993231</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>932.7757971549142</v>
+        <v>932.775797154914</v>
       </c>
       <c r="C30" t="n">
-        <v>758.3227678737873</v>
+        <v>758.322767873787</v>
       </c>
       <c r="D30" t="n">
-        <v>609.3883582125359</v>
+        <v>609.3883582125358</v>
       </c>
       <c r="E30" t="n">
-        <v>450.1509032070804</v>
+        <v>450.1509032070803</v>
       </c>
       <c r="F30" t="n">
-        <v>303.6163452339654</v>
+        <v>303.6163452339653</v>
       </c>
       <c r="G30" t="n">
         <v>166.883266103321</v>
       </c>
       <c r="H30" t="n">
-        <v>72.80815385915348</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I30" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J30" t="n">
-        <v>215.152506709706</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K30" t="n">
-        <v>656.6826967703342</v>
+        <v>677.0688674499143</v>
       </c>
       <c r="L30" t="n">
-        <v>944.6469799529968</v>
+        <v>965.0331506325768</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.044584201668</v>
+        <v>1320.430754881249</v>
       </c>
       <c r="N30" t="n">
-        <v>1679.257150431973</v>
+        <v>1699.643321111553</v>
       </c>
       <c r="O30" t="n">
-        <v>2003.94276814573</v>
+        <v>2024.32893882531</v>
       </c>
       <c r="P30" t="n">
-        <v>2245.198534907439</v>
+        <v>2265.584705587019</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.528944348363</v>
+        <v>2542.117996141784</v>
       </c>
       <c r="R30" t="n">
         <v>2564.528944348363</v>
@@ -6578,7 +6578,7 @@
         <v>2005.992398105413</v>
       </c>
       <c r="V30" t="n">
-        <v>1770.840289873671</v>
+        <v>1770.84028987367</v>
       </c>
       <c r="W30" t="n">
         <v>1516.602933145469</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.3434012272099</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="C31" t="n">
-        <v>201.407218299303</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="D31" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="E31" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="F31" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="G31" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="H31" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="I31" t="n">
-        <v>51.29057888696725</v>
+        <v>51.29057888696726</v>
       </c>
       <c r="J31" t="n">
-        <v>74.92003001304158</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K31" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L31" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M31" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N31" t="n">
         <v>1106.339879865804</v>
@@ -6654,19 +6654,19 @@
         <v>1190.509757383056</v>
       </c>
       <c r="U31" t="n">
-        <v>1190.509757383056</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.509757383056</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="W31" t="n">
-        <v>1000.773996098997</v>
+        <v>357.2883134694303</v>
       </c>
       <c r="X31" t="n">
-        <v>772.7844452009798</v>
+        <v>129.298762571413</v>
       </c>
       <c r="Y31" t="n">
-        <v>551.9918660574497</v>
+        <v>51.29057888696726</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1288.276051449673</v>
+        <v>1787.78977230843</v>
       </c>
       <c r="C32" t="n">
-        <v>919.3135345092612</v>
+        <v>1418.827255368018</v>
       </c>
       <c r="D32" t="n">
-        <v>561.0478359025108</v>
+        <v>1263.828674926796</v>
       </c>
       <c r="E32" t="n">
-        <v>175.2595833042665</v>
+        <v>878.0404223285514</v>
       </c>
       <c r="F32" t="n">
-        <v>51.29057888696726</v>
+        <v>467.0545175389437</v>
       </c>
       <c r="G32" t="n">
         <v>51.29057888696726</v>
@@ -6700,22 +6700,22 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J32" t="n">
-        <v>182.6484035402486</v>
+        <v>182.6484035402487</v>
       </c>
       <c r="K32" t="n">
-        <v>430.2582499382139</v>
+        <v>430.258249938214</v>
       </c>
       <c r="L32" t="n">
-        <v>781.4474136939264</v>
+        <v>774.3419214131804</v>
       </c>
       <c r="M32" t="n">
-        <v>1195.97623347967</v>
+        <v>1188.870741198924</v>
       </c>
       <c r="N32" t="n">
-        <v>1621.826371324918</v>
+        <v>1614.720879044173</v>
       </c>
       <c r="O32" t="n">
-        <v>2010.609319556535</v>
+        <v>2003.503827275789</v>
       </c>
       <c r="P32" t="n">
         <v>2307.92557020186</v>
@@ -6727,25 +6727,25 @@
         <v>2564.528944348363</v>
       </c>
       <c r="S32" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="T32" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="U32" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="V32" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="W32" t="n">
-        <v>2438.480981750686</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="X32" t="n">
-        <v>2065.015223489606</v>
+        <v>2564.528944348363</v>
       </c>
       <c r="Y32" t="n">
-        <v>1674.875891513795</v>
+        <v>2174.389612372551</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>932.7757971549136</v>
+        <v>932.7757971549141</v>
       </c>
       <c r="C33" t="n">
-        <v>758.3227678737865</v>
+        <v>758.3227678737871</v>
       </c>
       <c r="D33" t="n">
-        <v>609.3883582125352</v>
+        <v>609.3883582125359</v>
       </c>
       <c r="E33" t="n">
-        <v>450.1509032070798</v>
+        <v>450.1509032070804</v>
       </c>
       <c r="F33" t="n">
-        <v>303.6163452339647</v>
+        <v>303.6163452339654</v>
       </c>
       <c r="G33" t="n">
-        <v>166.8832661033207</v>
+        <v>166.883266103321</v>
       </c>
       <c r="H33" t="n">
-        <v>72.80815385915349</v>
+        <v>72.80815385915346</v>
       </c>
       <c r="I33" t="n">
         <v>51.29057888696726</v>
       </c>
       <c r="J33" t="n">
-        <v>235.538677389286</v>
+        <v>235.5386773892861</v>
       </c>
       <c r="K33" t="n">
-        <v>677.0688674499143</v>
+        <v>609.1508641329101</v>
       </c>
       <c r="L33" t="n">
-        <v>965.0331506325768</v>
+        <v>897.1151473155727</v>
       </c>
       <c r="M33" t="n">
-        <v>1320.430754881249</v>
+        <v>1252.512751564244</v>
       </c>
       <c r="N33" t="n">
-        <v>1699.643321111553</v>
+        <v>1887.233665290464</v>
       </c>
       <c r="O33" t="n">
-        <v>2024.32893882531</v>
+        <v>2211.919283004221</v>
       </c>
       <c r="P33" t="n">
-        <v>2265.584705587019</v>
+        <v>2453.17504976593</v>
       </c>
       <c r="Q33" t="n">
         <v>2564.528944348363</v>
@@ -6809,7 +6809,7 @@
         <v>2428.218860870717</v>
       </c>
       <c r="T33" t="n">
-        <v>2234.084585692264</v>
+        <v>2234.084585692265</v>
       </c>
       <c r="U33" t="n">
         <v>2005.992398105413</v>
@@ -6818,7 +6818,7 @@
         <v>1770.84028987367</v>
       </c>
       <c r="W33" t="n">
-        <v>1516.602933145468</v>
+        <v>1516.602933145469</v>
       </c>
       <c r="X33" t="n">
         <v>1308.751432939936</v>
@@ -6858,16 +6858,16 @@
         <v>51.29057888696726</v>
       </c>
       <c r="J34" t="n">
-        <v>74.9200300130416</v>
+        <v>74.92003001304161</v>
       </c>
       <c r="K34" t="n">
         <v>243.5873136073331</v>
       </c>
       <c r="L34" t="n">
-        <v>514.9498010977009</v>
+        <v>514.949801097701</v>
       </c>
       <c r="M34" t="n">
-        <v>811.4526194225153</v>
+        <v>811.4526194225155</v>
       </c>
       <c r="N34" t="n">
         <v>1106.339879865804</v>
@@ -6882,25 +6882,25 @@
         <v>1610.693118163192</v>
       </c>
       <c r="R34" t="n">
-        <v>1532.684934478746</v>
+        <v>1610.693118163192</v>
       </c>
       <c r="S34" t="n">
-        <v>1335.593494848795</v>
+        <v>1413.601678533241</v>
       </c>
       <c r="T34" t="n">
-        <v>1112.50157369861</v>
+        <v>1190.509757383056</v>
       </c>
       <c r="U34" t="n">
-        <v>823.381788027832</v>
+        <v>901.3899717122778</v>
       </c>
       <c r="V34" t="n">
-        <v>568.6972998219452</v>
+        <v>646.7054835063909</v>
       </c>
       <c r="W34" t="n">
-        <v>279.2801297849846</v>
+        <v>500.0727089285147</v>
       </c>
       <c r="X34" t="n">
-        <v>51.29057888696726</v>
+        <v>272.0831580304974</v>
       </c>
       <c r="Y34" t="n">
         <v>51.29057888696726</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1578.598235726085</v>
+        <v>1494.397663383253</v>
       </c>
       <c r="C35" t="n">
-        <v>1209.635718785673</v>
+        <v>1494.397663383253</v>
       </c>
       <c r="D35" t="n">
-        <v>851.3700201789227</v>
+        <v>1262.35592496853</v>
       </c>
       <c r="E35" t="n">
-        <v>465.5817675806785</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F35" t="n">
         <v>465.5817675806785</v>
       </c>
       <c r="G35" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H35" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I35" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J35" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K35" t="n">
-        <v>428.7854999799485</v>
+        <v>428.7854999799488</v>
       </c>
       <c r="L35" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549152</v>
       </c>
       <c r="M35" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N35" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O35" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P35" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q35" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561747</v>
       </c>
       <c r="R35" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S35" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="T35" t="n">
-        <v>2364.843483837422</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="U35" t="n">
-        <v>2364.843483837422</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="V35" t="n">
-        <v>2364.843483837422</v>
+        <v>2237.305650629179</v>
       </c>
       <c r="W35" t="n">
-        <v>2012.074828567308</v>
+        <v>1884.536995359065</v>
       </c>
       <c r="X35" t="n">
-        <v>1638.609070306228</v>
+        <v>1884.536995359065</v>
       </c>
       <c r="Y35" t="n">
-        <v>1638.609070306228</v>
+        <v>1494.397663383253</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>859.1382992416502</v>
+        <v>931.3030471966489</v>
       </c>
       <c r="C36" t="n">
-        <v>684.6852699605232</v>
+        <v>756.8500179155219</v>
       </c>
       <c r="D36" t="n">
-        <v>535.7508602992719</v>
+        <v>607.9156082542706</v>
       </c>
       <c r="E36" t="n">
-        <v>376.5134052938164</v>
+        <v>448.6781532488152</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9788473207014</v>
+        <v>302.1435952757001</v>
       </c>
       <c r="G36" t="n">
         <v>165.4105161450557</v>
@@ -7013,55 +7013,55 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I36" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J36" t="n">
-        <v>234.0659274310207</v>
+        <v>234.0659274310208</v>
       </c>
       <c r="K36" t="n">
-        <v>675.5961174916488</v>
+        <v>583.0451988570721</v>
       </c>
       <c r="L36" t="n">
-        <v>963.5604006743113</v>
+        <v>871.0094820397347</v>
       </c>
       <c r="M36" t="n">
-        <v>1318.958004922983</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N36" t="n">
-        <v>1698.170571153287</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.856188867044</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P36" t="n">
-        <v>2264.111955628753</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q36" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R36" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S36" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T36" t="n">
-        <v>2160.447087779001</v>
+        <v>2232.611835734</v>
       </c>
       <c r="U36" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V36" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W36" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X36" t="n">
-        <v>1235.113935026672</v>
+        <v>1307.278682981671</v>
       </c>
       <c r="Y36" t="n">
-        <v>1027.353636261718</v>
+        <v>1099.518384216717</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="C37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="D37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="E37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="F37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J37" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K37" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L37" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M37" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N37" t="n">
         <v>1104.867129907538</v>
@@ -7113,13 +7113,13 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q37" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R37" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S37" t="n">
         <v>1412.128928574975</v>
@@ -7134,13 +7134,13 @@
         <v>788.0171290072101</v>
       </c>
       <c r="W37" t="n">
-        <v>498.5999589702494</v>
+        <v>498.5999589702495</v>
       </c>
       <c r="X37" t="n">
         <v>270.6104080722321</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>920.9463428985359</v>
+        <v>1128.512773148286</v>
       </c>
       <c r="C38" t="n">
-        <v>551.9838259581243</v>
+        <v>1128.512773148286</v>
       </c>
       <c r="D38" t="n">
-        <v>193.7181273513738</v>
+        <v>770.247074541536</v>
       </c>
       <c r="E38" t="n">
-        <v>193.7181273513738</v>
+        <v>770.247074541536</v>
       </c>
       <c r="F38" t="n">
-        <v>193.7181273513738</v>
+        <v>770.247074541536</v>
       </c>
       <c r="G38" t="n">
-        <v>49.81782892870199</v>
+        <v>354.4831358895594</v>
       </c>
       <c r="H38" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I38" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J38" t="n">
-        <v>181.1756535819841</v>
+        <v>181.1756535819845</v>
       </c>
       <c r="K38" t="n">
-        <v>428.7854999799497</v>
+        <v>428.7854999799501</v>
       </c>
       <c r="L38" t="n">
-        <v>772.8691714549163</v>
+        <v>772.8691714549166</v>
       </c>
       <c r="M38" t="n">
-        <v>1187.397991240659</v>
+        <v>1187.39799124066</v>
       </c>
       <c r="N38" t="n">
-        <v>1613.248129085908</v>
+        <v>1613.248129085909</v>
       </c>
       <c r="O38" t="n">
-        <v>2002.031077317524</v>
+        <v>2002.031077317525</v>
       </c>
       <c r="P38" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q38" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R38" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S38" t="n">
-        <v>2364.843483837422</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T38" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U38" t="n">
-        <v>2364.843483837422</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="V38" t="n">
-        <v>2033.780596493852</v>
+        <v>1854.74718667948</v>
       </c>
       <c r="W38" t="n">
-        <v>1681.011941223737</v>
+        <v>1501.978531409366</v>
       </c>
       <c r="X38" t="n">
-        <v>1307.546182962658</v>
+        <v>1128.512773148286</v>
       </c>
       <c r="Y38" t="n">
-        <v>1307.546182962658</v>
+        <v>1128.512773148286</v>
       </c>
     </row>
     <row r="39">
@@ -7250,49 +7250,49 @@
         <v>71.33540390088822</v>
       </c>
       <c r="I39" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J39" t="n">
-        <v>234.0659274310207</v>
+        <v>141.5150087964439</v>
       </c>
       <c r="K39" t="n">
-        <v>560.6342506504922</v>
+        <v>583.0451988570721</v>
       </c>
       <c r="L39" t="n">
-        <v>848.5985338331546</v>
+        <v>871.0094820397347</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.996138081826</v>
+        <v>1226.407086288406</v>
       </c>
       <c r="N39" t="n">
-        <v>1583.208704312131</v>
+        <v>1605.619652518711</v>
       </c>
       <c r="O39" t="n">
-        <v>1907.894322025888</v>
+        <v>1930.305270232468</v>
       </c>
       <c r="P39" t="n">
-        <v>2149.150088787597</v>
+        <v>2171.561036994177</v>
       </c>
       <c r="Q39" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R39" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S39" t="n">
-        <v>2354.581362957454</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T39" t="n">
-        <v>2160.447087779001</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U39" t="n">
-        <v>1932.354900192149</v>
+        <v>2004.519648147148</v>
       </c>
       <c r="V39" t="n">
-        <v>1697.202791960407</v>
+        <v>1769.367539915405</v>
       </c>
       <c r="W39" t="n">
-        <v>1442.965435232205</v>
+        <v>1515.130183187204</v>
       </c>
       <c r="X39" t="n">
         <v>1307.278682981671</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217.8308434883834</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="C40" t="n">
-        <v>217.8308434883834</v>
+        <v>662.7505239810226</v>
       </c>
       <c r="D40" t="n">
-        <v>217.8308434883834</v>
+        <v>512.6338845686869</v>
       </c>
       <c r="E40" t="n">
-        <v>217.8308434883834</v>
+        <v>364.7207909862938</v>
       </c>
       <c r="F40" t="n">
         <v>217.8308434883834</v>
       </c>
       <c r="G40" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H40" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I40" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J40" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K40" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L40" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M40" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N40" t="n">
         <v>1104.867129907538</v>
@@ -7350,34 +7350,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P40" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q40" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R40" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S40" t="n">
-        <v>1412.128928574975</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T40" t="n">
-        <v>1412.128928574975</v>
+        <v>1603.480531683612</v>
       </c>
       <c r="U40" t="n">
-        <v>1123.009142904196</v>
+        <v>1314.360746012834</v>
       </c>
       <c r="V40" t="n">
-        <v>868.3246546983095</v>
+        <v>1059.676257806947</v>
       </c>
       <c r="W40" t="n">
-        <v>578.9074846613489</v>
+        <v>1059.676257806947</v>
       </c>
       <c r="X40" t="n">
-        <v>578.9074846613489</v>
+        <v>831.6867069089295</v>
       </c>
       <c r="Y40" t="n">
-        <v>358.1149055178188</v>
+        <v>831.6867069089295</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1256.687458305554</v>
+        <v>829.7662506587212</v>
       </c>
       <c r="C41" t="n">
-        <v>887.7249413651425</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="D41" t="n">
-        <v>529.4592427583921</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="E41" t="n">
-        <v>529.4592427583921</v>
+        <v>460.8037337183096</v>
       </c>
       <c r="F41" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="G41" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="H41" t="n">
-        <v>118.4733379687845</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I41" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J41" t="n">
-        <v>181.175653581984</v>
+        <v>181.1756535819836</v>
       </c>
       <c r="K41" t="n">
         <v>428.7854999799492</v>
       </c>
       <c r="L41" t="n">
-        <v>772.8691714549154</v>
+        <v>772.8691714549157</v>
       </c>
       <c r="M41" t="n">
         <v>1187.397991240659</v>
       </c>
       <c r="N41" t="n">
-        <v>1613.248129085907</v>
+        <v>1613.248129085908</v>
       </c>
       <c r="O41" t="n">
         <v>2002.031077317524</v>
       </c>
       <c r="P41" t="n">
-        <v>2299.347327962849</v>
+        <v>2299.34732796285</v>
       </c>
       <c r="Q41" t="n">
-        <v>2474.446703561746</v>
+        <v>2474.446703561748</v>
       </c>
       <c r="R41" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S41" t="n">
-        <v>2373.06120381256</v>
+        <v>2364.843483837424</v>
       </c>
       <c r="T41" t="n">
-        <v>2373.06120381256</v>
+        <v>2155.838745326147</v>
       </c>
       <c r="U41" t="n">
-        <v>2373.06120381256</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="V41" t="n">
-        <v>2373.06120381256</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="W41" t="n">
-        <v>2020.292548542446</v>
+        <v>1902.252949520225</v>
       </c>
       <c r="X41" t="n">
-        <v>1646.826790281366</v>
+        <v>1528.787191259145</v>
       </c>
       <c r="Y41" t="n">
-        <v>1256.687458305554</v>
+        <v>1138.647859283334</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>909.7854722244628</v>
+        <v>859.1382992416516</v>
       </c>
       <c r="C42" t="n">
-        <v>735.3324429433358</v>
+        <v>684.6852699605246</v>
       </c>
       <c r="D42" t="n">
-        <v>586.3980332820845</v>
+        <v>535.7508602992733</v>
       </c>
       <c r="E42" t="n">
-        <v>427.1605782766289</v>
+        <v>376.5134052938178</v>
       </c>
       <c r="F42" t="n">
-        <v>280.6260203035139</v>
+        <v>229.9788473207028</v>
       </c>
       <c r="G42" t="n">
-        <v>143.8929411728695</v>
+        <v>93.24576819005841</v>
       </c>
       <c r="H42" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I42" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J42" t="n">
-        <v>109.2358024440159</v>
+        <v>109.2358024440161</v>
       </c>
       <c r="K42" t="n">
-        <v>550.765992504644</v>
+        <v>288.9454078621915</v>
       </c>
       <c r="L42" t="n">
-        <v>838.7302756873065</v>
+        <v>787.1759816192947</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.127879935978</v>
+        <v>1142.573585867966</v>
       </c>
       <c r="N42" t="n">
-        <v>1573.340446166283</v>
+        <v>1521.786152098271</v>
       </c>
       <c r="O42" t="n">
-        <v>1898.02606388004</v>
+        <v>2138.281785090959</v>
       </c>
       <c r="P42" t="n">
-        <v>2149.150088787597</v>
+        <v>2379.537551852668</v>
       </c>
       <c r="Q42" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="R42" t="n">
-        <v>2490.891446435099</v>
+        <v>2490.891446435101</v>
       </c>
       <c r="S42" t="n">
-        <v>2405.228535940266</v>
+        <v>2354.581362957455</v>
       </c>
       <c r="T42" t="n">
-        <v>2211.094260761814</v>
+        <v>2160.447087779002</v>
       </c>
       <c r="U42" t="n">
-        <v>1983.002073174962</v>
+        <v>1932.354900192151</v>
       </c>
       <c r="V42" t="n">
-        <v>1747.849964943219</v>
+        <v>1697.202791960408</v>
       </c>
       <c r="W42" t="n">
-        <v>1493.612608215017</v>
+        <v>1442.965435232206</v>
       </c>
       <c r="X42" t="n">
-        <v>1285.761108009485</v>
+        <v>1235.113935026674</v>
       </c>
       <c r="Y42" t="n">
-        <v>1078.000809244531</v>
+        <v>1027.35363626172</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>747.8064246408306</v>
+        <v>350.9179337633325</v>
       </c>
       <c r="C43" t="n">
-        <v>578.8702417129238</v>
+        <v>350.9179337633325</v>
       </c>
       <c r="D43" t="n">
-        <v>578.8702417129238</v>
+        <v>200.8012943509968</v>
       </c>
       <c r="E43" t="n">
-        <v>430.9571481305306</v>
+        <v>200.8012943509968</v>
       </c>
       <c r="F43" t="n">
-        <v>284.0672006326203</v>
+        <v>200.8012943509968</v>
       </c>
       <c r="G43" t="n">
         <v>198.792779527604</v>
       </c>
       <c r="H43" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="I43" t="n">
-        <v>49.81782892870199</v>
+        <v>49.81782892870201</v>
       </c>
       <c r="J43" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477636</v>
       </c>
       <c r="K43" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490679</v>
       </c>
       <c r="L43" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M43" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N43" t="n">
         <v>1104.867129907538</v>
@@ -7587,13 +7587,13 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q43" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R43" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S43" t="n">
         <v>1412.128928574975</v>
@@ -7602,19 +7602,19 @@
         <v>1412.128928574975</v>
       </c>
       <c r="U43" t="n">
-        <v>1412.128928574975</v>
+        <v>1123.009142904197</v>
       </c>
       <c r="V43" t="n">
-        <v>1157.444440369088</v>
+        <v>868.3246546983104</v>
       </c>
       <c r="W43" t="n">
-        <v>1157.444440369088</v>
+        <v>578.9074846613498</v>
       </c>
       <c r="X43" t="n">
-        <v>929.4548894710704</v>
+        <v>350.9179337633325</v>
       </c>
       <c r="Y43" t="n">
-        <v>929.4548894710704</v>
+        <v>350.9179337633325</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1214.638553536409</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="C44" t="n">
-        <v>1214.638553536409</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="D44" t="n">
-        <v>1214.638553536409</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="E44" t="n">
-        <v>828.8503009381648</v>
+        <v>876.5676723702861</v>
       </c>
       <c r="F44" t="n">
-        <v>417.8643961485572</v>
+        <v>465.5817675806785</v>
       </c>
       <c r="G44" t="n">
         <v>49.81782892870199</v>
@@ -7648,28 +7648,28 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J44" t="n">
-        <v>181.1756535819833</v>
+        <v>181.1756535819834</v>
       </c>
       <c r="K44" t="n">
-        <v>428.7854999799485</v>
+        <v>428.7854999799487</v>
       </c>
       <c r="L44" t="n">
-        <v>772.8691714549147</v>
+        <v>772.8691714549154</v>
       </c>
       <c r="M44" t="n">
-        <v>1187.397991240658</v>
+        <v>1187.397991240659</v>
       </c>
       <c r="N44" t="n">
-        <v>1613.248129085906</v>
+        <v>1613.248129085907</v>
       </c>
       <c r="O44" t="n">
-        <v>2002.031077317523</v>
+        <v>2002.031077317524</v>
       </c>
       <c r="P44" t="n">
-        <v>2299.347327962848</v>
+        <v>2299.347327962849</v>
       </c>
       <c r="Q44" t="n">
-        <v>2474.446703561745</v>
+        <v>2474.446703561746</v>
       </c>
       <c r="R44" t="n">
         <v>2490.891446435099</v>
@@ -7678,22 +7678,22 @@
         <v>2364.843483837422</v>
       </c>
       <c r="T44" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="U44" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="V44" t="n">
-        <v>2364.843483837422</v>
+        <v>2155.838745326145</v>
       </c>
       <c r="W44" t="n">
-        <v>2364.843483837422</v>
+        <v>1803.070090056031</v>
       </c>
       <c r="X44" t="n">
-        <v>1991.377725576343</v>
+        <v>1429.604331794951</v>
       </c>
       <c r="Y44" t="n">
-        <v>1601.238393600531</v>
+        <v>1263.167512434408</v>
       </c>
     </row>
     <row r="45">
@@ -7715,7 +7715,7 @@
         <v>376.5134052938164</v>
       </c>
       <c r="F45" t="n">
-        <v>229.9788473207014</v>
+        <v>280.6260203035139</v>
       </c>
       <c r="G45" t="n">
         <v>143.8929411728695</v>
@@ -7730,25 +7730,25 @@
         <v>234.0659274310207</v>
       </c>
       <c r="K45" t="n">
-        <v>413.775532849196</v>
+        <v>583.0451988570709</v>
       </c>
       <c r="L45" t="n">
-        <v>701.7398160318585</v>
+        <v>871.0094820397335</v>
       </c>
       <c r="M45" t="n">
-        <v>1057.13742028053</v>
+        <v>1226.407086288405</v>
       </c>
       <c r="N45" t="n">
-        <v>1583.208704312131</v>
+        <v>1605.61965251871</v>
       </c>
       <c r="O45" t="n">
-        <v>1907.894322025888</v>
+        <v>1930.305270232467</v>
       </c>
       <c r="P45" t="n">
-        <v>2149.150088787597</v>
+        <v>2171.561036994176</v>
       </c>
       <c r="Q45" t="n">
-        <v>2468.48049822852</v>
+        <v>2490.891446435099</v>
       </c>
       <c r="R45" t="n">
         <v>2490.891446435099</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.81782892870199</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="C46" t="n">
-        <v>49.81782892870199</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="D46" t="n">
-        <v>49.81782892870199</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="E46" t="n">
-        <v>49.81782892870199</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="F46" t="n">
-        <v>49.81782892870199</v>
+        <v>217.8308434883834</v>
       </c>
       <c r="G46" t="n">
         <v>49.81782892870199</v>
@@ -7806,16 +7806,16 @@
         <v>49.81782892870199</v>
       </c>
       <c r="J46" t="n">
-        <v>73.44728005477629</v>
+        <v>73.44728005477631</v>
       </c>
       <c r="K46" t="n">
-        <v>242.1145636490677</v>
+        <v>242.1145636490678</v>
       </c>
       <c r="L46" t="n">
-        <v>513.4770511394354</v>
+        <v>513.4770511394356</v>
       </c>
       <c r="M46" t="n">
-        <v>809.9798694642498</v>
+        <v>809.9798694642501</v>
       </c>
       <c r="N46" t="n">
         <v>1104.867129907538</v>
@@ -7824,34 +7824,34 @@
         <v>1361.226948298602</v>
       </c>
       <c r="P46" t="n">
-        <v>1557.06637823043</v>
+        <v>1557.066378230431</v>
       </c>
       <c r="Q46" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="R46" t="n">
-        <v>1609.220368204926</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="S46" t="n">
-        <v>1554.91332403406</v>
+        <v>1609.220368204927</v>
       </c>
       <c r="T46" t="n">
-        <v>1331.821402883875</v>
+        <v>1386.128447054742</v>
       </c>
       <c r="U46" t="n">
-        <v>1042.701617213097</v>
+        <v>1097.008661383964</v>
       </c>
       <c r="V46" t="n">
-        <v>788.0171290072101</v>
+        <v>842.3241731780771</v>
       </c>
       <c r="W46" t="n">
-        <v>498.5999589702494</v>
+        <v>552.9070031411165</v>
       </c>
       <c r="X46" t="n">
-        <v>270.6104080722321</v>
+        <v>324.9174522430992</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.81782892870199</v>
+        <v>324.9174522430992</v>
       </c>
     </row>
   </sheetData>
@@ -8771,13 +8771,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>170.9794606140155</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>94.68404435936435</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>263.7353825697126</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.88434839053377</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>3.732535704012093</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>263.7353825697126</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>239.6798654165477</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>116.5915113372859</v>
       </c>
       <c r="R15" t="n">
-        <v>22.88434839053377</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>170.9794606140153</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>116.5915113372855</v>
       </c>
       <c r="R18" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053382</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140152</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.5915113372854</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>22.88434839053379</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>72.89368480302832</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.177264930045709</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>189.4851961403143</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>135.4876645129552</v>
       </c>
       <c r="R24" t="n">
         <v>22.88434839053379</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72.8936848030279</v>
+        <v>72.89368480302832</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>243.8731454170436</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>189.4851961403136</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>22.88434839053379</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.177264930045851</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>72.89368480302869</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>105.4989437448735</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.847874719527</v>
       </c>
       <c r="R30" t="n">
-        <v>22.8843483905338</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>7.17726493004659</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>7.177264930045794</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>195.8611932580289</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>258.0892398948637</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.4851961403141</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.8843483905338</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.122657522500958e-12</v>
+        <v>1.037392394209746e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>170.9794606140161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>116.5915113372864</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>22.88434839053383</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>32.60525894184632</v>
       </c>
       <c r="K39" t="n">
-        <v>148.3421391932285</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>212.390192499435</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>294.7575911908387</v>
       </c>
       <c r="P42" t="n">
-        <v>9.967937521058815</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>22.88434839053379</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>170.9794606140149</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>148.3421391932284</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>22.8843483905338</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>80.35155894441942</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.6062992654567</v>
       </c>
       <c r="H11" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>67.96895394968161</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.82860233789566</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>71.44310047544873</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>71.4431004754473</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>86.14790751708686</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.2279027156298</v>
       </c>
       <c r="T13" t="n">
         <v>220.8610019386828</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>52.2652625741012</v>
       </c>
       <c r="H14" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I14" t="n">
-        <v>67.96895394968161</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>124.7874829717001</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>206.9146911261644</v>
@@ -23554,16 +23554,16 @@
         <v>251.0499378478622</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>254.2327335710397</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,13 +23576,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>71.44310047544828</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>50.14070125298392</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>21.30239922246435</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>89.10478256648288</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>147.485201092913</v>
       </c>
       <c r="I16" t="n">
-        <v>105.5870378728063</v>
+        <v>8.631886758056808</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.739413241946</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>220.8610019386828</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>272.6775474593211</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>98.8344090307798</v>
       </c>
       <c r="H17" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I17" t="n">
-        <v>67.96895394968163</v>
+        <v>67.96895394968166</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>71.44310047544909</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>71.44310047544823</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I19" t="n">
-        <v>105.5870378728063</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>195.1205252336517</v>
       </c>
       <c r="T19" t="n">
-        <v>179.7655044117336</v>
+        <v>181.6930702171238</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>124.7874829717001</v>
+        <v>42.7819888103385</v>
       </c>
       <c r="T20" t="n">
         <v>206.9146911261644</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>277.1357563667829</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>69.2058607989679</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>147.485201092913</v>
+        <v>11.90453626669492</v>
       </c>
       <c r="I22" t="n">
         <v>105.5870378728063</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2285878140705</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>126.526354204498</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>159.3592483968851</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>411.6062992654567</v>
       </c>
       <c r="H23" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>67.96895394968163</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>34.16943826938079</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>91.65707429377306</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3328844140846</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.485201092913</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.5870378728063</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T25" t="n">
-        <v>220.8610019386828</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>164.0895019206304</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>120.9227308028603</v>
+        <v>301.6186538912489</v>
       </c>
       <c r="I26" t="n">
         <v>67.96895394968163</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>128.3593805172499</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.485201092913</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>105.5870378728063</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>15.74997882732774</v>
       </c>
       <c r="U28" t="n">
         <v>286.2285878140705</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,10 +24688,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.6062992654567</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>206.9146911261644</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>213.1732412622987</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>126.5263542044984</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>98.68459466537274</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>141.3565515044936</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>201.234446983873</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>284.1467313685852</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.6062992654567</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.6186538912489</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T32" t="n">
         <v>206.9146911261644</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>25.51131139434465</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>141.3565515044936</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>323.3231154291384</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>124.9617205901073</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I35" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>124.7874829717001</v>
       </c>
       <c r="T35" t="n">
         <v>206.9146911261644</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>71.44310047544872</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>71.44310047544727</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>141.3565515044943</v>
+        <v>141.3565515044936</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>269.1450038270117</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>301.6186538912489</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>280.7215532577975</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25526,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>71.44310047544732</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>71.44310047544857</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.95075877279626</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T40" t="n">
-        <v>220.8610019386828</v>
+        <v>215.1785637825816</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>76.94104912511426</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25648,7 +25648,7 @@
         <v>301.6186538912489</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>8.135542775386426</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0499378478622</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>50.14070125298299</v>
       </c>
       <c r="I42" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246435</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>50.14070125298436</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>81.91120752011851</v>
+        <v>164.3444547389258</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>220.8610019386828</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2285878140705</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>47.24019771780007</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>301.6186538912489</v>
       </c>
       <c r="I44" t="n">
-        <v>67.96895394968166</v>
+        <v>67.96895394968163</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.9146911261644</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.0499378478622</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>221.4654874891155</v>
       </c>
     </row>
     <row r="45">
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>50.14070125298434</v>
       </c>
       <c r="G45" t="n">
-        <v>50.14070125298431</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>21.30239922246437</v>
+        <v>21.30239922246436</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>39.40530535576258</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3328844140846</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>147.485201092913</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.7394132419461</v>
+        <v>102.739413241946</v>
       </c>
       <c r="S46" t="n">
-        <v>141.3565515044942</v>
+        <v>195.1205252336517</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608583.0276228864</v>
+        <v>608583.027622886</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608583.027622886</v>
+        <v>608583.0276228861</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608583.0276228861</v>
+        <v>608583.027622886</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>621083.0477201268</v>
+        <v>621083.047720127</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>621083.0477201268</v>
+        <v>621083.0477201269</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>608583.0276228861</v>
+        <v>608583.0276228864</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>608583.027622886</v>
+        <v>608583.0276228862</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>608583.0276228859</v>
+        <v>608583.0276228864</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>608583.0276228861</v>
+        <v>608583.0276228859</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.162505705</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="E2" t="n">
         <v>466826.4754211793</v>
       </c>
       <c r="F2" t="n">
-        <v>466826.4754211793</v>
+        <v>466826.4754211791</v>
       </c>
       <c r="G2" t="n">
         <v>466826.4754211793</v>
@@ -26337,22 +26337,22 @@
         <v>473581.420571133</v>
       </c>
       <c r="J2" t="n">
-        <v>473581.420571133</v>
+        <v>473581.4205711329</v>
       </c>
       <c r="K2" t="n">
-        <v>473581.420571133</v>
+        <v>473581.4205711329</v>
       </c>
       <c r="L2" t="n">
-        <v>473581.420571133</v>
+        <v>473581.4205711329</v>
       </c>
       <c r="M2" t="n">
-        <v>466826.4754211793</v>
+        <v>466826.4754211794</v>
       </c>
       <c r="N2" t="n">
-        <v>466826.4754211792</v>
+        <v>466826.4754211796</v>
       </c>
       <c r="O2" t="n">
-        <v>466826.4754211794</v>
+        <v>466826.4754211796</v>
       </c>
       <c r="P2" t="n">
         <v>466826.4754211793</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>924651.5793761242</v>
+        <v>924651.579376124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>4895.439270648227</v>
@@ -26426,10 +26426,10 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
+        <v>21793.13801240076</v>
+      </c>
+      <c r="F4" t="n">
         <v>21793.13801240078</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21793.13801240076</v>
       </c>
       <c r="G4" t="n">
         <v>21793.13801240077</v>
@@ -26441,25 +26441,25 @@
         <v>25808.34085240598</v>
       </c>
       <c r="J4" t="n">
-        <v>25808.34085240596</v>
+        <v>25808.34085240599</v>
       </c>
       <c r="K4" t="n">
-        <v>25808.34085240599</v>
+        <v>25808.34085240598</v>
       </c>
       <c r="L4" t="n">
-        <v>25808.34085240601</v>
+        <v>25808.34085240598</v>
       </c>
       <c r="M4" t="n">
         <v>21793.13801240083</v>
       </c>
       <c r="N4" t="n">
-        <v>21793.13801240078</v>
+        <v>21793.13801240079</v>
       </c>
       <c r="O4" t="n">
         <v>21793.13801240078</v>
       </c>
       <c r="P4" t="n">
-        <v>21793.13801240081</v>
+        <v>21793.13801240076</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57906.41050425676</v>
+        <v>57906.41050425673</v>
       </c>
       <c r="F5" t="n">
-        <v>57906.41050425675</v>
+        <v>57906.41050425674</v>
       </c>
       <c r="G5" t="n">
-        <v>57906.41050425674</v>
+        <v>57906.41050425672</v>
       </c>
       <c r="H5" t="n">
         <v>57906.41050425674</v>
@@ -26493,25 +26493,25 @@
         <v>59025.70047253834</v>
       </c>
       <c r="J5" t="n">
-        <v>59025.70047253833</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="K5" t="n">
-        <v>59025.70047253833</v>
+        <v>59025.70047253834</v>
       </c>
       <c r="L5" t="n">
         <v>59025.70047253834</v>
       </c>
       <c r="M5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="N5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="O5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425675</v>
       </c>
       <c r="P5" t="n">
-        <v>57906.41050425672</v>
+        <v>57906.41050425673</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159618.1767312031</v>
+        <v>159657.8989320162</v>
       </c>
       <c r="C6" t="n">
-        <v>159618.1767312032</v>
+        <v>159657.8989320164</v>
       </c>
       <c r="D6" t="n">
-        <v>159618.1767312032</v>
+        <v>159657.8989320163</v>
       </c>
       <c r="E6" t="n">
-        <v>-542991.7781562359</v>
+        <v>-538071.3650400656</v>
       </c>
       <c r="F6" t="n">
-        <v>381659.8012198882</v>
+        <v>386580.2143360583</v>
       </c>
       <c r="G6" t="n">
-        <v>381659.8012198884</v>
+        <v>386580.2143360587</v>
       </c>
       <c r="H6" t="n">
-        <v>381659.8012198883</v>
+        <v>386580.2143360582</v>
       </c>
       <c r="I6" t="n">
-        <v>378602.7157473569</v>
+        <v>383327.0175527221</v>
       </c>
       <c r="J6" t="n">
-        <v>383498.1550180053</v>
+        <v>388222.4568233702</v>
       </c>
       <c r="K6" t="n">
-        <v>383498.1550180052</v>
+        <v>388222.4568233702</v>
       </c>
       <c r="L6" t="n">
-        <v>383498.1550180052</v>
+        <v>388222.4568233702</v>
       </c>
       <c r="M6" t="n">
-        <v>231062.4629730292</v>
+        <v>235982.8760891995</v>
       </c>
       <c r="N6" t="n">
-        <v>381659.8012198881</v>
+        <v>386580.2143360586</v>
       </c>
       <c r="O6" t="n">
-        <v>381659.8012198884</v>
+        <v>386580.2143360588</v>
       </c>
       <c r="P6" t="n">
-        <v>381659.8012198881</v>
+        <v>386580.2143360585</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="G3" t="n">
-        <v>919.4890146074873</v>
+        <v>919.4890146074872</v>
       </c>
       <c r="H3" t="n">
         <v>919.4890146074874</v>
@@ -26764,22 +26764,22 @@
         <v>919.4890146074874</v>
       </c>
       <c r="K3" t="n">
+        <v>919.4890146074874</v>
+      </c>
+      <c r="L3" t="n">
+        <v>919.4890146074874</v>
+      </c>
+      <c r="M3" t="n">
+        <v>919.4890146074874</v>
+      </c>
+      <c r="N3" t="n">
+        <v>919.4890146074874</v>
+      </c>
+      <c r="O3" t="n">
+        <v>919.4890146074874</v>
+      </c>
+      <c r="P3" t="n">
         <v>919.4890146074873</v>
-      </c>
-      <c r="L3" t="n">
-        <v>919.4890146074873</v>
-      </c>
-      <c r="M3" t="n">
-        <v>919.4890146074871</v>
-      </c>
-      <c r="N3" t="n">
-        <v>919.4890146074871</v>
-      </c>
-      <c r="O3" t="n">
-        <v>919.4890146074871</v>
-      </c>
-      <c r="P3" t="n">
-        <v>919.4890146074871</v>
       </c>
     </row>
     <row r="4">
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
         <v>622.7228616087749</v>
       </c>
       <c r="G4" t="n">
-        <v>622.7228616087749</v>
+        <v>622.7228616087747</v>
       </c>
       <c r="H4" t="n">
         <v>622.7228616087749</v>
@@ -26813,22 +26813,22 @@
         <v>641.1322360870907</v>
       </c>
       <c r="J4" t="n">
-        <v>641.1322360870906</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="K4" t="n">
-        <v>641.1322360870906</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="L4" t="n">
         <v>641.1322360870907</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="N4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="O4" t="n">
-        <v>622.7228616087748</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="P4" t="n">
         <v>622.7228616087748</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>919.4890146074875</v>
+        <v>919.4890146074873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-5.211787951993993e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>604.3134871304592</v>
+        <v>604.313487130459</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>622.7228616087751</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H11" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I11" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J11" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K11" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L11" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M11" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N11" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O11" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P11" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q11" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R11" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S11" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T11" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,31 +31834,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H12" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I12" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J12" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K12" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L12" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M12" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N12" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O12" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P12" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q12" t="n">
         <v>252.4604554824181</v>
@@ -31867,13 +31867,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S12" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T12" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H13" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I13" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J13" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K13" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L13" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M13" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N13" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O13" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P13" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q13" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R13" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S13" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T13" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.696438249678339</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H14" t="n">
-        <v>37.8561482245183</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I14" t="n">
         <v>142.5069356207243</v>
       </c>
       <c r="J14" t="n">
-        <v>313.7305758936372</v>
+        <v>313.7305758936371</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2008070025214</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L14" t="n">
-        <v>583.325679086115</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M14" t="n">
-        <v>649.0622128088321</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N14" t="n">
-        <v>659.5647179857308</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O14" t="n">
-        <v>622.8082601404917</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P14" t="n">
-        <v>531.5524408515577</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q14" t="n">
-        <v>399.173746034952</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R14" t="n">
-        <v>232.1963892013572</v>
+        <v>232.1963892013571</v>
       </c>
       <c r="S14" t="n">
-        <v>84.23258661454524</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T14" t="n">
-        <v>16.18115843796694</v>
+        <v>16.18115843796693</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2957150599742671</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,31 +32071,31 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H15" t="n">
-        <v>19.10108311477064</v>
+        <v>19.10108311477063</v>
       </c>
       <c r="I15" t="n">
-        <v>68.09423362895073</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J15" t="n">
         <v>186.8557817326405</v>
       </c>
       <c r="K15" t="n">
-        <v>319.366292932112</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L15" t="n">
         <v>429.427393095695</v>
       </c>
       <c r="M15" t="n">
-        <v>501.1215129610807</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N15" t="n">
-        <v>514.3847082755605</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O15" t="n">
-        <v>470.5615148623809</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P15" t="n">
-        <v>377.6671011130264</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q15" t="n">
         <v>252.4604554824181</v>
@@ -32104,13 +32104,13 @@
         <v>122.7951555734302</v>
       </c>
       <c r="S15" t="n">
-        <v>36.73618846096894</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T15" t="n">
-        <v>7.971796268153592</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1301163699916257</v>
+        <v>0.1301163699916256</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.658094944374158</v>
+        <v>1.658094944374157</v>
       </c>
       <c r="H16" t="n">
         <v>14.74197141452661</v>
       </c>
       <c r="I16" t="n">
-        <v>49.86343705445196</v>
+        <v>49.86343705445194</v>
       </c>
       <c r="J16" t="n">
         <v>117.2273125672529</v>
       </c>
       <c r="K16" t="n">
-        <v>192.6404853554703</v>
+        <v>192.6404853554702</v>
       </c>
       <c r="L16" t="n">
-        <v>246.5134974572271</v>
+        <v>246.513497457227</v>
       </c>
       <c r="M16" t="n">
-        <v>259.9139193258509</v>
+        <v>259.9139193258508</v>
       </c>
       <c r="N16" t="n">
         <v>253.7337472604565</v>
       </c>
       <c r="O16" t="n">
-        <v>234.3641835920856</v>
+        <v>234.3641835920855</v>
       </c>
       <c r="P16" t="n">
-        <v>200.5390467268526</v>
+        <v>200.5390467268525</v>
       </c>
       <c r="Q16" t="n">
         <v>138.8428412057306</v>
       </c>
       <c r="R16" t="n">
-        <v>74.55397813522347</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S16" t="n">
-        <v>28.89607280332054</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T16" t="n">
-        <v>7.084587489598672</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09044154242040871</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>37.85614822451829</v>
       </c>
       <c r="I17" t="n">
-        <v>142.5069356207243</v>
+        <v>142.5069356207242</v>
       </c>
       <c r="J17" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2008070025213</v>
+        <v>470.2008070025212</v>
       </c>
       <c r="L17" t="n">
-        <v>583.3256790861149</v>
+        <v>583.3256790861147</v>
       </c>
       <c r="M17" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088319</v>
       </c>
       <c r="N17" t="n">
         <v>659.5647179857306</v>
       </c>
       <c r="O17" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404915</v>
       </c>
       <c r="P17" t="n">
-        <v>531.5524408515575</v>
+        <v>531.5524408515574</v>
       </c>
       <c r="Q17" t="n">
         <v>399.1737460349519</v>
@@ -32268,7 +32268,7 @@
         <v>16.18115843796693</v>
       </c>
       <c r="U17" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742669</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.977768823872709</v>
+        <v>1.977768823872708</v>
       </c>
       <c r="H18" t="n">
         <v>19.10108311477063</v>
@@ -32314,19 +32314,19 @@
         <v>68.09423362895072</v>
       </c>
       <c r="J18" t="n">
-        <v>186.8557817326405</v>
+        <v>186.8557817326404</v>
       </c>
       <c r="K18" t="n">
         <v>319.3662929321119</v>
       </c>
       <c r="L18" t="n">
-        <v>429.427393095695</v>
+        <v>429.4273930956949</v>
       </c>
       <c r="M18" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610804</v>
       </c>
       <c r="N18" t="n">
-        <v>514.3847082755603</v>
+        <v>514.3847082755602</v>
       </c>
       <c r="O18" t="n">
         <v>470.5615148623808</v>
@@ -32335,16 +32335,16 @@
         <v>377.6671011130263</v>
       </c>
       <c r="Q18" t="n">
-        <v>252.4604554824181</v>
+        <v>252.460455482418</v>
       </c>
       <c r="R18" t="n">
-        <v>122.7951555734302</v>
+        <v>122.7951555734301</v>
       </c>
       <c r="S18" t="n">
         <v>36.73618846096893</v>
       </c>
       <c r="T18" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153589</v>
       </c>
       <c r="U18" t="n">
         <v>0.1301163699916256</v>
@@ -32405,7 +32405,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N19" t="n">
-        <v>253.7337472604565</v>
+        <v>253.7337472604564</v>
       </c>
       <c r="O19" t="n">
         <v>234.3641835920855</v>
@@ -32417,16 +32417,16 @@
         <v>138.8428412057306</v>
       </c>
       <c r="R19" t="n">
-        <v>74.55397813522346</v>
+        <v>74.55397813522345</v>
       </c>
       <c r="S19" t="n">
         <v>28.89607280332053</v>
       </c>
       <c r="T19" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598669</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040867</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H29" t="n">
         <v>37.85614822451829</v>
@@ -33183,40 +33183,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J29" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K29" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L29" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M29" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N29" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O29" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P29" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q29" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R29" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S29" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T29" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U29" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,10 +33256,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H30" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I30" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J30" t="n">
         <v>186.8557817326405</v>
@@ -33271,13 +33271,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M30" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N30" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O30" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P30" t="n">
         <v>377.6671011130263</v>
@@ -33292,7 +33292,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T30" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U30" t="n">
         <v>0.1301163699916256</v>
@@ -33338,7 +33338,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I31" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J31" t="n">
         <v>117.2273125672529</v>
@@ -33347,7 +33347,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L31" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M31" t="n">
         <v>259.9139193258508</v>
@@ -33359,7 +33359,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P31" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q31" t="n">
         <v>138.8428412057306</v>
@@ -33368,13 +33368,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S31" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T31" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.696438249678338</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H32" t="n">
         <v>37.85614822451829</v>
@@ -33420,40 +33420,40 @@
         <v>142.5069356207243</v>
       </c>
       <c r="J32" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K32" t="n">
         <v>470.2008070025213</v>
       </c>
       <c r="L32" t="n">
-        <v>583.3256790861149</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M32" t="n">
-        <v>649.062212808832</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N32" t="n">
-        <v>659.5647179857306</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O32" t="n">
-        <v>622.8082601404916</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P32" t="n">
         <v>531.5524408515575</v>
       </c>
       <c r="Q32" t="n">
-        <v>399.1737460349519</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R32" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S32" t="n">
-        <v>84.23258661454521</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T32" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U32" t="n">
-        <v>0.295715059974267</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.977768823872709</v>
       </c>
       <c r="H33" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I33" t="n">
-        <v>68.09423362895072</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J33" t="n">
         <v>186.8557817326405</v>
@@ -33508,13 +33508,13 @@
         <v>429.427393095695</v>
       </c>
       <c r="M33" t="n">
-        <v>501.1215129610805</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N33" t="n">
         <v>514.3847082755603</v>
       </c>
       <c r="O33" t="n">
-        <v>470.5615148623808</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P33" t="n">
         <v>377.6671011130263</v>
@@ -33529,7 +33529,7 @@
         <v>36.73618846096893</v>
       </c>
       <c r="T33" t="n">
-        <v>7.97179626815359</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U33" t="n">
         <v>0.1301163699916256</v>
@@ -33575,7 +33575,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I34" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J34" t="n">
         <v>117.2273125672529</v>
@@ -33584,7 +33584,7 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L34" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M34" t="n">
         <v>259.9139193258508</v>
@@ -33596,7 +33596,7 @@
         <v>234.3641835920855</v>
       </c>
       <c r="P34" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q34" t="n">
         <v>138.8428412057306</v>
@@ -33605,13 +33605,13 @@
         <v>74.55397813522346</v>
       </c>
       <c r="S34" t="n">
-        <v>28.89607280332053</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T34" t="n">
-        <v>7.08458748959867</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09044154242040868</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H35" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I35" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J35" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L35" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M35" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N35" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O35" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P35" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q35" t="n">
-        <v>399.1737460349518</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R35" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S35" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T35" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H36" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I36" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J36" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K36" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L36" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M36" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N36" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O36" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P36" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q36" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R36" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S36" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T36" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U36" t="n">
         <v>0.1301163699916256</v>
@@ -33812,7 +33812,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I37" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J37" t="n">
         <v>117.2273125672529</v>
@@ -33821,34 +33821,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L37" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M37" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N37" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O37" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P37" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R37" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S37" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T37" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H38" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I38" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J38" t="n">
-        <v>313.7305758936371</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M38" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N38" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O38" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P38" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q38" t="n">
-        <v>399.1737460349518</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R38" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S38" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T38" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H39" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I39" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J39" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K39" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L39" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M39" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N39" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O39" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P39" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q39" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R39" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S39" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T39" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U39" t="n">
         <v>0.1301163699916256</v>
@@ -34049,7 +34049,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I40" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J40" t="n">
         <v>117.2273125672529</v>
@@ -34058,34 +34058,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L40" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M40" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N40" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O40" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P40" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R40" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S40" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T40" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678339</v>
       </c>
       <c r="H41" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I41" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J41" t="n">
-        <v>313.7305758936378</v>
+        <v>313.7305758936372</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L41" t="n">
-        <v>583.3256790861147</v>
+        <v>583.325679086115</v>
       </c>
       <c r="M41" t="n">
-        <v>649.0622128088318</v>
+        <v>649.0622128088321</v>
       </c>
       <c r="N41" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857307</v>
       </c>
       <c r="O41" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404917</v>
       </c>
       <c r="P41" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q41" t="n">
-        <v>399.1737460349518</v>
+        <v>399.173746034952</v>
       </c>
       <c r="R41" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S41" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454523</v>
       </c>
       <c r="T41" t="n">
-        <v>16.18115843796693</v>
+        <v>16.18115843796694</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.2957150599742671</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H42" t="n">
-        <v>19.10108311477063</v>
+        <v>19.10108311477064</v>
       </c>
       <c r="I42" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895073</v>
       </c>
       <c r="J42" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K42" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L42" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M42" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610806</v>
       </c>
       <c r="N42" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O42" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623809</v>
       </c>
       <c r="P42" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R42" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S42" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T42" t="n">
-        <v>7.971796268153589</v>
+        <v>7.971796268153591</v>
       </c>
       <c r="U42" t="n">
         <v>0.1301163699916256</v>
@@ -34286,7 +34286,7 @@
         <v>14.74197141452661</v>
       </c>
       <c r="I43" t="n">
-        <v>49.86343705445194</v>
+        <v>49.86343705445195</v>
       </c>
       <c r="J43" t="n">
         <v>117.2273125672529</v>
@@ -34295,34 +34295,34 @@
         <v>192.6404853554702</v>
       </c>
       <c r="L43" t="n">
-        <v>246.513497457227</v>
+        <v>246.5134974572271</v>
       </c>
       <c r="M43" t="n">
         <v>259.9139193258508</v>
       </c>
       <c r="N43" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O43" t="n">
         <v>234.3641835920855</v>
       </c>
       <c r="P43" t="n">
-        <v>200.5390467268525</v>
+        <v>200.5390467268526</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R43" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S43" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332054</v>
       </c>
       <c r="T43" t="n">
-        <v>7.084587489598668</v>
+        <v>7.084587489598671</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040869</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.696438249678337</v>
+        <v>3.696438249678338</v>
       </c>
       <c r="H44" t="n">
-        <v>37.85614822451828</v>
+        <v>37.85614822451829</v>
       </c>
       <c r="I44" t="n">
-        <v>142.5069356207242</v>
+        <v>142.5069356207243</v>
       </c>
       <c r="J44" t="n">
         <v>313.7305758936371</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2008070025212</v>
+        <v>470.2008070025213</v>
       </c>
       <c r="L44" t="n">
-        <v>583.3256790861147</v>
+        <v>583.3256790861149</v>
       </c>
       <c r="M44" t="n">
-        <v>649.0622128088318</v>
+        <v>649.062212808832</v>
       </c>
       <c r="N44" t="n">
-        <v>659.5647179857305</v>
+        <v>659.5647179857306</v>
       </c>
       <c r="O44" t="n">
-        <v>622.8082601404915</v>
+        <v>622.8082601404916</v>
       </c>
       <c r="P44" t="n">
-        <v>531.5524408515574</v>
+        <v>531.5524408515575</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.1737460349518</v>
+        <v>399.1737460349519</v>
       </c>
       <c r="R44" t="n">
         <v>232.1963892013571</v>
       </c>
       <c r="S44" t="n">
-        <v>84.2325866145452</v>
+        <v>84.23258661454521</v>
       </c>
       <c r="T44" t="n">
         <v>16.18115843796693</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2957150599742669</v>
+        <v>0.295715059974267</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.977768823872708</v>
+        <v>1.977768823872709</v>
       </c>
       <c r="H45" t="n">
         <v>19.10108311477063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.0942336289507</v>
+        <v>68.09423362895072</v>
       </c>
       <c r="J45" t="n">
-        <v>186.8557817326404</v>
+        <v>186.8557817326405</v>
       </c>
       <c r="K45" t="n">
-        <v>319.3662929321118</v>
+        <v>319.3662929321119</v>
       </c>
       <c r="L45" t="n">
-        <v>429.4273930956949</v>
+        <v>429.427393095695</v>
       </c>
       <c r="M45" t="n">
-        <v>501.1215129610804</v>
+        <v>501.1215129610805</v>
       </c>
       <c r="N45" t="n">
-        <v>514.3847082755602</v>
+        <v>514.3847082755603</v>
       </c>
       <c r="O45" t="n">
-        <v>470.5615148623807</v>
+        <v>470.5615148623808</v>
       </c>
       <c r="P45" t="n">
-        <v>377.6671011130262</v>
+        <v>377.6671011130263</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.460455482418</v>
+        <v>252.4604554824181</v>
       </c>
       <c r="R45" t="n">
-        <v>122.7951555734301</v>
+        <v>122.7951555734302</v>
       </c>
       <c r="S45" t="n">
-        <v>36.73618846096892</v>
+        <v>36.73618846096893</v>
       </c>
       <c r="T45" t="n">
-        <v>7.971796268153589</v>
+        <v>7.97179626815359</v>
       </c>
       <c r="U45" t="n">
         <v>0.1301163699916256</v>
@@ -34538,7 +34538,7 @@
         <v>259.9139193258508</v>
       </c>
       <c r="N46" t="n">
-        <v>253.7337472604564</v>
+        <v>253.7337472604565</v>
       </c>
       <c r="O46" t="n">
         <v>234.3641835920855</v>
@@ -34547,19 +34547,19 @@
         <v>200.5390467268525</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.8428412057305</v>
+        <v>138.8428412057306</v>
       </c>
       <c r="R46" t="n">
-        <v>74.55397813522343</v>
+        <v>74.55397813522346</v>
       </c>
       <c r="S46" t="n">
-        <v>28.89607280332052</v>
+        <v>28.89607280332053</v>
       </c>
       <c r="T46" t="n">
-        <v>7.084587489598668</v>
+        <v>7.08458748959867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09044154242040867</v>
+        <v>0.09044154242040868</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K11" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L11" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M11" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N11" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O11" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P11" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R11" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1091904063827</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5043145717685</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L12" t="n">
-        <v>290.8730133158209</v>
+        <v>385.5570576751851</v>
       </c>
       <c r="M12" t="n">
-        <v>358.9874790390624</v>
+        <v>622.7228616087748</v>
       </c>
       <c r="N12" t="n">
-        <v>383.0429961922272</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P12" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q12" t="n">
-        <v>322.5559691322457</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>22.63732142078702</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K13" t="n">
         <v>170.3709935295874</v>
@@ -35576,19 +35576,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M13" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N13" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O13" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P13" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K14" t="n">
-        <v>250.1109559575409</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L14" t="n">
-        <v>347.5592641161277</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M14" t="n">
-        <v>418.7159795815594</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N14" t="n">
-        <v>430.1516543891399</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O14" t="n">
-        <v>392.710048718805</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P14" t="n">
-        <v>300.3194450962881</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.8680561605026</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R14" t="n">
-        <v>16.61085138722504</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.01815506597381</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K15" t="n">
-        <v>185.2573896617651</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L15" t="n">
-        <v>290.8730133158209</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M15" t="n">
-        <v>622.7228616087749</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N15" t="n">
-        <v>622.7228616087749</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9652704179365</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P15" t="n">
         <v>243.6926936986961</v>
       </c>
       <c r="Q15" t="n">
-        <v>112.4786813963966</v>
+        <v>229.0701927336825</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>23.86813245058016</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K16" t="n">
         <v>170.3709935295874</v>
@@ -35813,19 +35813,19 @@
         <v>274.1035227175432</v>
       </c>
       <c r="M16" t="n">
-        <v>299.4977962876915</v>
+        <v>299.4977962876914</v>
       </c>
       <c r="N16" t="n">
-        <v>297.8659196396851</v>
+        <v>297.865919639685</v>
       </c>
       <c r="O16" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P16" t="n">
-        <v>197.8176059917461</v>
+        <v>197.817605991746</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.68079795403624</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>132.6846713669509</v>
+        <v>132.6846713669508</v>
       </c>
       <c r="K17" t="n">
         <v>250.1109559575407</v>
       </c>
       <c r="L17" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161275</v>
       </c>
       <c r="M17" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815592</v>
       </c>
       <c r="N17" t="n">
         <v>430.1516543891397</v>
       </c>
       <c r="O17" t="n">
-        <v>392.7100487188048</v>
+        <v>392.7100487188047</v>
       </c>
       <c r="P17" t="n">
-        <v>300.319445096288</v>
+        <v>300.3194450962879</v>
       </c>
       <c r="Q17" t="n">
         <v>176.8680561605024</v>
       </c>
       <c r="R17" t="n">
-        <v>16.61085138722498</v>
+        <v>16.61085138722495</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5043145717682</v>
+        <v>445.9900909703315</v>
       </c>
       <c r="L18" t="n">
-        <v>290.8730133158208</v>
+        <v>290.8730133158207</v>
       </c>
       <c r="M18" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390621</v>
       </c>
       <c r="N18" t="n">
-        <v>383.0429961922271</v>
+        <v>383.042996192227</v>
       </c>
       <c r="O18" t="n">
-        <v>327.9652704179364</v>
+        <v>327.9652704179363</v>
       </c>
       <c r="P18" t="n">
-        <v>243.6926936986961</v>
+        <v>243.692693698696</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.5559691322457</v>
+        <v>229.070192733682</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058012</v>
       </c>
       <c r="K19" t="n">
         <v>170.3709935295874</v>
       </c>
       <c r="L19" t="n">
-        <v>274.1035227175432</v>
+        <v>274.1035227175431</v>
       </c>
       <c r="M19" t="n">
         <v>299.4977962876914</v>
@@ -36056,13 +36056,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O19" t="n">
-        <v>258.9493115061252</v>
+        <v>258.9493115061251</v>
       </c>
       <c r="P19" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.68079795403621</v>
+        <v>52.68079795403618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K21" t="n">
-        <v>445.9900909703316</v>
+        <v>352.5043145717681</v>
       </c>
       <c r="L21" t="n">
         <v>290.8730133158208</v>
@@ -36220,7 +36220,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q21" t="n">
-        <v>229.070192733682</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>132.6846713669509</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K23" t="n">
         <v>250.1109559575408</v>
@@ -36378,10 +36378,10 @@
         <v>300.319445096288</v>
       </c>
       <c r="Q23" t="n">
-        <v>184.0453210905482</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R23" t="n">
-        <v>82.32727126020745</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9900909703316</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L24" t="n">
-        <v>480.3582094561351</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M24" t="n">
         <v>358.9874790390623</v>
@@ -36454,10 +36454,10 @@
         <v>327.9652704179364</v>
       </c>
       <c r="P24" t="n">
-        <v>243.6926936986961</v>
+        <v>562.1554623386332</v>
       </c>
       <c r="Q24" t="n">
-        <v>112.4786813963966</v>
+        <v>247.9663459093518</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>205.5783561699788</v>
+        <v>205.5783561699792</v>
       </c>
       <c r="K26" t="n">
         <v>250.1109559575408</v>
@@ -36676,7 +36676,7 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K27" t="n">
-        <v>445.9900909703316</v>
+        <v>425.3979993747965</v>
       </c>
       <c r="L27" t="n">
         <v>290.8730133158208</v>
@@ -36694,7 +36694,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q27" t="n">
-        <v>301.9638775367102</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.6846713669509</v>
+        <v>139.8619362969968</v>
       </c>
       <c r="K29" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L29" t="n">
-        <v>347.5592641161276</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M29" t="n">
-        <v>491.609664384588</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N29" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O29" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P29" t="n">
         <v>300.319445096288</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R29" t="n">
-        <v>16.61085138722498</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>165.5170988108472</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K30" t="n">
         <v>445.9900909703316</v>
@@ -36919,7 +36919,7 @@
         <v>290.8730133158208</v>
       </c>
       <c r="M30" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N30" t="n">
         <v>383.0429961922271</v>
@@ -36931,10 +36931,10 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q30" t="n">
-        <v>322.5559691322457</v>
+        <v>279.3265561159236</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>22.63732142078703</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K31" t="n">
         <v>170.3709935295874</v>
@@ -37001,13 +37001,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N31" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O31" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P31" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q31" t="n">
         <v>52.68079795403621</v>
@@ -37071,28 +37071,28 @@
         <v>132.6846713669509</v>
       </c>
       <c r="K32" t="n">
-        <v>250.1109559575407</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L32" t="n">
-        <v>354.7365290461742</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M32" t="n">
-        <v>418.7159795815593</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N32" t="n">
-        <v>430.1516543891397</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O32" t="n">
-        <v>392.7100487188048</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P32" t="n">
-        <v>300.319445096288</v>
+        <v>307.4967100263338</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.8680561605024</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R32" t="n">
-        <v>82.32727126020743</v>
+        <v>82.32727126020745</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>186.1091904063826</v>
       </c>
       <c r="K33" t="n">
-        <v>445.9900909703316</v>
+        <v>377.3860472157819</v>
       </c>
       <c r="L33" t="n">
         <v>290.8730133158208</v>
       </c>
       <c r="M33" t="n">
-        <v>358.9874790390622</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N33" t="n">
-        <v>383.0429961922271</v>
+        <v>641.1322360870907</v>
       </c>
       <c r="O33" t="n">
         <v>327.9652704179364</v>
@@ -37168,7 +37168,7 @@
         <v>243.6926936986961</v>
       </c>
       <c r="Q33" t="n">
-        <v>301.9638775367106</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>23.86813245058013</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K34" t="n">
         <v>170.3709935295874</v>
@@ -37238,13 +37238,13 @@
         <v>299.4977962876914</v>
       </c>
       <c r="N34" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O34" t="n">
         <v>258.9493115061252</v>
       </c>
       <c r="P34" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q34" t="n">
         <v>52.68079795403621</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K35" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L35" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M35" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N35" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O35" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P35" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R35" t="n">
         <v>16.61085138722605</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>186.1091904063825</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9900909703314</v>
+        <v>352.504314571769</v>
       </c>
       <c r="L36" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M36" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N36" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O36" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P36" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q36" t="n">
-        <v>229.0701927336829</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K37" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L37" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M37" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N37" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O37" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P37" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q37" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K38" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L38" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M38" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N38" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O38" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P38" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R38" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>186.1091904063825</v>
+        <v>92.6234140078201</v>
       </c>
       <c r="K39" t="n">
-        <v>329.8669931509813</v>
+        <v>445.9900909703316</v>
       </c>
       <c r="L39" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M39" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N39" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O39" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P39" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q39" t="n">
-        <v>322.5559691322455</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R39" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K40" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L40" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M40" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N40" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O40" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P40" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q40" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6846713669515</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K41" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575408</v>
       </c>
       <c r="L41" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161277</v>
       </c>
       <c r="M41" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815594</v>
       </c>
       <c r="N41" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891398</v>
       </c>
       <c r="O41" t="n">
-        <v>392.7100487188047</v>
+        <v>392.710048718805</v>
       </c>
       <c r="P41" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605025</v>
       </c>
       <c r="R41" t="n">
-        <v>16.61085138722493</v>
+        <v>16.61085138722501</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.0181550659737</v>
+        <v>60.01815506597379</v>
       </c>
       <c r="K42" t="n">
-        <v>445.9900909703314</v>
+        <v>181.524853957753</v>
       </c>
       <c r="L42" t="n">
-        <v>290.8730133158207</v>
+        <v>503.2632058152558</v>
       </c>
       <c r="M42" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390623</v>
       </c>
       <c r="N42" t="n">
-        <v>383.042996192227</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O42" t="n">
-        <v>327.9652704179363</v>
+        <v>622.7228616087751</v>
       </c>
       <c r="P42" t="n">
-        <v>253.6606312197548</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q42" t="n">
-        <v>322.5559691322455</v>
+        <v>112.4786813963966</v>
       </c>
       <c r="R42" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058015</v>
       </c>
       <c r="K43" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L43" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M43" t="n">
         <v>299.4977962876914</v>
       </c>
       <c r="N43" t="n">
-        <v>297.865919639685</v>
+        <v>297.8659196396851</v>
       </c>
       <c r="O43" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P43" t="n">
-        <v>197.817605991746</v>
+        <v>197.8176059917461</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132.6846713669508</v>
+        <v>132.6846713669509</v>
       </c>
       <c r="K44" t="n">
-        <v>250.1109559575406</v>
+        <v>250.1109559575407</v>
       </c>
       <c r="L44" t="n">
-        <v>347.5592641161275</v>
+        <v>347.5592641161276</v>
       </c>
       <c r="M44" t="n">
-        <v>418.7159795815591</v>
+        <v>418.7159795815593</v>
       </c>
       <c r="N44" t="n">
-        <v>430.1516543891395</v>
+        <v>430.1516543891397</v>
       </c>
       <c r="O44" t="n">
-        <v>392.7100487188047</v>
+        <v>392.7100487188048</v>
       </c>
       <c r="P44" t="n">
-        <v>300.3194450962879</v>
+        <v>300.319445096288</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.8680561605023</v>
+        <v>176.8680561605024</v>
       </c>
       <c r="R44" t="n">
-        <v>16.61085138722605</v>
+        <v>16.61085138722498</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>186.1091904063825</v>
+        <v>186.1091904063826</v>
       </c>
       <c r="K45" t="n">
-        <v>181.5248539577528</v>
+        <v>352.5043145717678</v>
       </c>
       <c r="L45" t="n">
-        <v>290.8730133158207</v>
+        <v>290.8730133158208</v>
       </c>
       <c r="M45" t="n">
-        <v>358.9874790390621</v>
+        <v>358.9874790390622</v>
       </c>
       <c r="N45" t="n">
-        <v>531.3851353854553</v>
+        <v>383.0429961922271</v>
       </c>
       <c r="O45" t="n">
-        <v>327.9652704179363</v>
+        <v>327.9652704179364</v>
       </c>
       <c r="P45" t="n">
-        <v>243.692693698696</v>
+        <v>243.6926936986961</v>
       </c>
       <c r="Q45" t="n">
-        <v>322.5559691322455</v>
+        <v>322.5559691322457</v>
       </c>
       <c r="R45" t="n">
-        <v>22.63732142078699</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>23.86813245058011</v>
+        <v>23.86813245058013</v>
       </c>
       <c r="K46" t="n">
-        <v>170.3709935295873</v>
+        <v>170.3709935295874</v>
       </c>
       <c r="L46" t="n">
-        <v>274.1035227175431</v>
+        <v>274.1035227175432</v>
       </c>
       <c r="M46" t="n">
         <v>299.4977962876914</v>
@@ -38189,13 +38189,13 @@
         <v>297.865919639685</v>
       </c>
       <c r="O46" t="n">
-        <v>258.9493115061251</v>
+        <v>258.9493115061252</v>
       </c>
       <c r="P46" t="n">
         <v>197.817605991746</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.68079795403615</v>
+        <v>52.68079795403621</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
